--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -4974,7 +4974,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4984,40 +4984,40 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>412500</v>
+        <v>318500</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_da</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>318500</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>412500</v>
+        <v>318500</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_da</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5027,40 +5027,40 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>318500</v>
+        <v>315500</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_liftback_2018</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>315500</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>318500</v>
+        <v>315500</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_liftback_2018</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5070,40 +5070,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>315500</v>
+        <v>298500</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_sedan_2018</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>298500</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>315500</v>
+        <v>298500</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_sedan_2018</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5113,33 +5113,33 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>298500</v>
+        <v>412500</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>298500</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>298500</v>
+        <v>412500</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://volgograd-autostore.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/baic/u5plus</t>
+          <t>https://vlg-autotrade.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -535,14 +535,6 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/baic/u5_plus/</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1439000</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/baic/u5plus</t>
         </is>
       </c>
     </row>
@@ -567,7 +559,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/baic/x35</t>
+          <t>https://vlg-autotrade.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -578,14 +570,6 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/baic/x35/</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1459000</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/baic/x35</t>
         </is>
       </c>
     </row>
@@ -645,7 +629,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/alsvin</t>
+          <t>https://vlg-autotrade.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -656,21 +640,13 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>969900</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/alsvin</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -680,7 +656,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS35 Plus</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -688,22 +664,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs35plus_2023</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1449900</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs35plus_2023</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,32 +691,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1449900</v>
+        <v>767000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs35_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>767000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs35_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -748,40 +726,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>767000</v>
+        <v>1773900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs55</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>767000</t>
+          <t>1773900</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs55/</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>767000</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs55</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -791,40 +761,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1773900</v>
+        <v>1432900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs55plus</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1773900</t>
+          <t>1432900</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs55_plus/</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1773900</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs55plus</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -834,40 +796,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1432900</v>
+        <v>2299900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs75fl</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1432900</t>
+          <t>2299900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs75fl/</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1432900</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs75fl</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -877,40 +831,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2299900</v>
+        <v>3849900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs85_coupe</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2299900</t>
+          <t>3849900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs85_coupe/</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/cs85_coupe</t>
+          <t>https://vlg-autotrade.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -920,32 +866,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3849900</v>
+        <v>1499900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs95/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3849900</t>
+          <t>1499900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/cs95/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -955,40 +901,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1499900</v>
+        <v>2809900</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/eadoplus</t>
+          <t>https://vlg-autotrade.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1499900</t>
+          <t>2809900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/eadoplus</t>
+          <t>https://vlg-autotrade.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -998,32 +936,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2809900</v>
+        <v>1939900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/hunter_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2809900</t>
+          <t>1939900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/hunter_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1033,32 +971,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1939900</v>
+        <v>3039900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/lamore/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1939900</t>
+          <t>3039900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/lamore/</t>
+          <t>https://vlg-autotrade.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1068,40 +1006,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3039900</v>
+        <v>1969900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/unik</t>
+          <t>https://vlg-autotrade.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3039900</t>
+          <t>1969900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3039900</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/unik</t>
+          <t>https://vlg-autotrade.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1111,83 +1041,67 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1969900</v>
+        <v>1779900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/unit</t>
+          <t>https://vlg-autotrade.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1969900</t>
+          <t>1779900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1969900</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/unit</t>
+          <t>https://vlg-autotrade.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1779900</v>
+        <v>2649000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/uni_v</t>
+          <t>https://vlg-autotrade.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1779900</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1779900</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/changan/uni_v</t>
+          <t>https://vlg-autotrade.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1197,40 +1111,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2649000</v>
+        <v>661900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/arrizo_8</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>661900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2649000</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/arrizo_8</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1240,40 +1146,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>661900</v>
+        <v>816900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo3</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>661900</t>
+          <t>816900</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_3/</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>661900</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo3</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1283,40 +1181,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>816900</v>
+        <v>1029900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_4_2019</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>816900</t>
+          <t>1029900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>816900</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_4_2019</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1326,40 +1216,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 5</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1029900</v>
+        <v>640900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo4pro</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>640900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_4_pro/</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1029900</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo4pro</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1369,40 +1251,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 5</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>640900</v>
+        <v>987900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_5_new</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>640900</t>
+          <t>987900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_5/</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>640900</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_5_new</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1412,40 +1286,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>987900</v>
+        <v>1087900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_7</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>987900</t>
+          <t>1087900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7/</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>987900</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_7</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1455,40 +1321,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1087900</v>
+        <v>1519900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo7pro</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1087900</t>
+          <t>1519900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro/</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1087900</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo7pro</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1498,40 +1356,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1519900</v>
+        <v>1939000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_7_promax</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1519900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1519900</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_7_promax</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1541,32 +1391,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1939000</v>
+        <v>1239900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1576,40 +1426,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1239900</v>
+        <v>1179900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_8</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1179900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1239900</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_8</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1619,40 +1461,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1179900</v>
+        <v>2949900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1179900</t>
+          <t>2949900</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro/</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1179900</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1662,75 +1496,67 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2949900</v>
+        <v>3810000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2949900</t>
+          <t>3810000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3810000</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chery/tiggo_8_promax</t>
+          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3810000</v>
+        <v>577900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-autotrade.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3810000</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-autotrade.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1740,40 +1566,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>577900</v>
+        <v>527900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chevrolet/cobalt_20</t>
+          <t>https://vlg-autotrade.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>527900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>577900</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chevrolet/cobalt_20</t>
+          <t>https://vlg-autotrade.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1783,116 +1601,102 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>527900</v>
+        <v>587900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chevrolet/nexia</t>
+          <t>https://vlg-autotrade.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>527900</t>
+          <t>587900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>527900</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chevrolet/nexia</t>
+          <t>https://vlg-autotrade.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>587900</v>
+        <v>1399900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/chevrolet/spark20</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>587900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>587900</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/chevrolet/spark20</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1103000</v>
+        <v>4550000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/dongfeng/580</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1103000</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/dongfeng/580</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4550000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1902,7 +1706,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1910,7 +1714,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/exeed/lx</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1920,22 +1724,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/exeed/lx/</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1399900</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/exeed/lx</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1945,118 +1741,102 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4550000</v>
+        <v>2455900</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/exeed/rx/</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4550000</t>
+          <t>2455900</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/exeed/rx/</t>
+          <t>https://vlg-autotrade.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1399900</v>
+        <v>1658000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/exeed/txl</t>
+          <t>https://vlg-autotrade.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1658000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1399900</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/exeed/txl</t>
+          <t>https://vlg-autotrade.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2455900</v>
+        <v>1558610</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/exeed/vx</t>
+          <t>https://vlg-autotrade.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2455900</t>
+          <t>1558610</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/exeed/vx/</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2455900</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/exeed/vx</t>
+          <t>https://vlg-autotrade.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2066,40 +1846,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1658000</v>
+        <v>1455000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_b70</t>
+          <t>https://vlg-autotrade.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1658000</t>
+          <t>1455000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1658000</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_b70</t>
+          <t>https://vlg-autotrade.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2109,40 +1881,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1558610</v>
+        <v>2250000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_t55</t>
+          <t>https://vlg-autotrade.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1558610</t>
+          <t>2250000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/bestune_t55/</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1558610</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_t55</t>
+          <t>https://vlg-autotrade.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2152,40 +1916,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1455000</v>
+        <v>898000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_t77</t>
+          <t>https://vlg-autotrade.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1455000</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1455000</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_t77</t>
+          <t>https://vlg-autotrade.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2195,229 +1951,207 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2250000</v>
+        <v>938000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_t99</t>
+          <t>https://vlg-autotrade.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2250000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/bestune_t99/</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/faw/bestune_t99</t>
+          <t>https://vlg-autotrade.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>898000</v>
+        <v>905000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/x40/</t>
+          <t>https://vlg-autotrade.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>905000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/x40/</t>
+          <t>https://vlg-autotrade.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>938000</v>
+        <v>1445000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/x80/</t>
+          <t>https://vlg-autotrade.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1445000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/faw/x80/</t>
+          <t>https://vlg-autotrade.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1855000</v>
+        <v>1117990</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/gac/gn8</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1855000</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/gac/gn8</t>
+          <t>https://vlg-autotrade.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1117990</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>905000</v>
+        <v>1994990</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/gac/gs5</t>
+          <t>https://vlg-autotrade.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>905000</t>
+          <t>1994990</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/gac/gs5/</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>905000</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/gac/gs5</t>
+          <t>https://vlg-autotrade.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1445000</v>
+        <v>1494990</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/gac/gs8</t>
+          <t>https://vlg-autotrade.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1494990</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/gac/gs8/</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1445000</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/gac/gs8</t>
+          <t>https://vlg-autotrade.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2427,40 +2161,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Belgee X50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1117990</v>
+        <v>1585990</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/atlas_1/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1117990</t>
+          <t>1585990</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1994990</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/atlas</t>
+          <t>https://vlg-autotrade.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2470,32 +2196,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1994990</v>
+        <v>805990</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/atlas/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1994990</t>
+          <t>805990</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/atlas/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2505,40 +2231,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1494990</v>
+        <v>1544990</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/atlas_pro</t>
+          <t>https://vlg-autotrade.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1494990</t>
+          <t>1544990</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/atlas_pro/</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1494990</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/atlas_pro</t>
+          <t>https://vlg-autotrade.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2548,32 +2266,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1585990</v>
+        <v>1149990</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/belgee_x50/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1585990</t>
+          <t>1149990</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/belgee_x50/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2583,40 +2301,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>805990</v>
+        <v>867990</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/coolray_1/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>805990</t>
+          <t>867990</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>1544990</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/coolray</t>
+          <t>https://vlg-autotrade.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2626,32 +2336,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1544990</v>
+        <v>987990</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/coolray/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1544990</t>
+          <t>987990</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/coolray/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2661,32 +2371,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1149990</v>
+        <v>2979990</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/emgrand/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1149990</t>
+          <t>2979990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/emgrand/</t>
+          <t>https://vlg-autotrade.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2696,40 +2406,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>867990</v>
+        <v>2414993</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://vlg-autotrade.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>2414993</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/emgrand_x7/</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>867990</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://vlg-autotrade.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2739,186 +2441,172 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>987990</v>
+        <v>1859990</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/gs</t>
+          <t>https://vlg-autotrade.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/gs/</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>987990</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/gs</t>
+          <t>https://vlg-autotrade.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2979990</v>
+        <v>1719000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/monjaro</t>
+          <t>https://vlg-autotrade.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2979990</t>
+          <t>1719000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/monjaro/</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2979990</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/monjaro</t>
+          <t>https://vlg-autotrade.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2414993</v>
+        <v>2269000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/okavango/</t>
+          <t>https://vlg-autotrade.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>2269000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/okavango/</t>
+          <t>https://vlg-autotrade.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tugella</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1859990</v>
+        <v>1119000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/tugella</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>1859990</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/geely/tugella</t>
+          <t>https://vlg-autotrade.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1119000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1859990</v>
+        <v>1199000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/tugella/</t>
+          <t>https://vlg-autotrade.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/geely/tugella/</t>
+          <t>https://vlg-autotrade.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2928,40 +2616,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1719000</v>
+        <v>1137000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/dargo</t>
+          <t>https://vlg-autotrade.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1719000</t>
+          <t>1137000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1719000</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/dargo</t>
+          <t>https://vlg-autotrade.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2971,40 +2651,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2269000</v>
+        <v>1803000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/dargox</t>
+          <t>https://vlg-autotrade.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2269000</t>
+          <t>1803000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2269000</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/dargox</t>
+          <t>https://vlg-autotrade.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3014,30 +2686,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1119000</v>
+        <v>529000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/f7</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1119000</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/f7</t>
+          <t>https://vlg-autotrade.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>529000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3047,32 +2721,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1119000</v>
+        <v>1149000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/f7/</t>
+          <t>https://vlg-autotrade.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1119000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/f7/</t>
+          <t>https://vlg-autotrade.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3082,1856 +2756,1712 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1199000</v>
+        <v>1299000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/f7x</t>
+          <t>https://vlg-autotrade.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1199000</v>
+        <v>919000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/f7x/</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>919000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/f7x/</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1137000</v>
+        <v>1007000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/h5/</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1007000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/h5/</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>1157000</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/h5_2020</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1803000</v>
+        <v>615000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/h9_2018</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1803000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/h9/</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>1803000</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/h9_2018</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>529000</v>
+        <v>1432000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>529000</t>
+          <t>1432000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>1149000</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/haval/jolion</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1149000</v>
+        <v>1429000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/jolion/</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1429000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/jolion/</t>
+          <t>https://vlg-autotrade.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1299000</v>
+        <v>709000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/m6/</t>
+          <t>https://vlg-autotrade.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/haval/m6/</t>
+          <t>https://vlg-autotrade.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>919000</v>
+        <v>1129000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/creta_21_new</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>919000</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/creta_21_new</t>
+          <t>https://vlg-autotrade.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1129000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>919000</v>
+        <v>2389900</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-autotrade.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>919000</t>
+          <t>2389900</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-autotrade.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1007000</v>
+        <v>1459900</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/elantra_20</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>1007000</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/elantra_20</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1459900</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1007000</v>
+        <v>2099930</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1007000</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>615000</v>
+        <v>2359900</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>2359900</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/solaris/</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>615000</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1432000</v>
+        <v>840000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/sonata_2019</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1432000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/sonata/</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>1432000</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/sonata_2019</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1429000</v>
+        <v>1140000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/tucson_21</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>1429000</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/hyundai/tucson_21</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1140000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1429000</v>
+        <v>1299000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1429000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>709000</v>
+        <v>1209000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/j7</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>709000</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/j7</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>887000</v>
+        <v>1367650</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/js4</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>887000</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/js4</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1367650</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2920000</v>
+        <v>1740000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/js6</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>2920000</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/js6</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1740000</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>315000</v>
+        <v>2197900</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/s3</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>315000</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/s3</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2197900</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1129000</v>
+        <v>1129900</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/s7</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>1129000</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/s7</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1139000</v>
+        <v>1239900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>1139000</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jac/t_6</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1239900</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2389900</v>
+        <v>1194900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2389900</t>
+          <t>1194900</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1459900</v>
+        <v>1299000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jetour/dashing</t>
+          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1459900</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>1459900</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jetour/dashing</t>
+          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2099930</v>
+        <v>699900</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>699900</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2359900</v>
+        <v>1534900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jetour/x90plus</t>
+          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2359900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>2359900</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jetour/x90plus</t>
+          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>840000</v>
+        <v>589900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jetta/va3</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>589900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>840000</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jetta/va3</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1140000</v>
+        <v>807900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/jetta/vs5</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>1140000</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/jetta/vs5</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1299000</v>
+        <v>758900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1209000</v>
+        <v>962900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kaiyi/e5</t>
+          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>1209000</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kaiyi/e5</t>
+          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1367650</v>
+        <v>884900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1367650</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1740000</v>
+        <v>1829000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2197900</v>
+        <v>962900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1129900</v>
+        <v>304400</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/ceed_2021</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>304400</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>1129900</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/ceed_2021</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1239900</v>
+        <v>318500</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/ceed_sw_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>318500</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>1239900</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/ceed_sw_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1194900</v>
+        <v>315500</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/cerato_2018</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>1194900</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/cerato_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>315500</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1194900</v>
+        <v>298500</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1194900</t>
+          <t>298500</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1299000</v>
+        <v>412500</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/k5</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>1299000</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/k5</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Picanto</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>699900</v>
+        <v>290900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/picanto_2021</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>699900</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/picanto_2021</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>290900</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>699900</v>
+        <v>567900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>699900</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1534900</v>
+        <v>480000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/proceed_2019</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>480000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>1534900</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/proceed_2019</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>589900</v>
+        <v>481000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/rio_20</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>589900</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/rio_20</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>481000</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>589900</v>
+        <v>567000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>589900</t>
+          <t>567000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>807900</v>
+        <v>468900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/rio_x</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>807900</t>
+          <t>468900</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>807900</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/rio_x</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>758900</v>
+        <v>568900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/rio_x_line</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>568900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>758900</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/rio_x_line</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>962900</v>
+        <v>599000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/seltos</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>962900</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/seltos</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>884900</v>
+        <v>487000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/soul_2019</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>487000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>884900</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/soul_2019</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1829000</v>
+        <v>913900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/sportage_2022</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>1829000</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/sportage_2022</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>913900</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1829000</v>
+        <v>1052900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1052900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>962900</v>
+        <v>913900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/xceed</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>962900</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/kia/xceed</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4941,40 +4471,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>304400</v>
+        <v>1028900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>304400</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>304400</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4984,40 +4506,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>318500</v>
+        <v>1051900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>1051900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>318500</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5027,40 +4541,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>315500</v>
+        <v>859900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>859900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>315500</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5070,40 +4576,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>298500</v>
+        <v>821900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>298500</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>298500</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5113,40 +4611,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>412500</v>
+        <v>1006900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_da</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>412500</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_da</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5156,40 +4646,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>290900</v>
+        <v>789900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>789900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>290900</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5199,30 +4681,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>480000</v>
+        <v>1297900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/largus_21</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>480000</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/largus_21</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1297900</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5232,30 +4716,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>567900</v>
+        <v>496900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>567900</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/largus_cross_21</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>496900</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5265,3271 +4751,1810 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>567900</v>
+        <v>604000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>604000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>480000</v>
+        <v>674000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>480000</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>481000</v>
+        <v>639900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>481000</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/largus_furgon21</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>639900</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>481000</v>
+        <v>426600</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>481000</t>
+          <t>426600</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>567000</v>
+        <v>414000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>567000</t>
+          <t>414000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>468900</v>
+        <v>435000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/4x4_3dr</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>468900</t>
+          <t>435000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>468900</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/4x4_3dr</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>568900</v>
+        <v>719000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/4x4_5dr</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>568900</t>
+          <t>719000</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>568900</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/4x4_5dr</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>599000</v>
+        <v>1399900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/niva_off</t>
+          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>599000</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/niva_off</t>
+          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>487000</v>
+        <v>1229900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/travel</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>487000</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>487000</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/travel</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>913900</v>
+        <v>1579900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>1052900</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_cross_2023</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1052900</v>
+        <v>1170000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1052900</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>859900</v>
+        <v>3450000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>3450000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>859900</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1028900</v>
+        <v>2039000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>1051900</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_sw_cross_2023</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1051900</v>
+        <v>1077000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1051900</t>
+          <t>1077000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>859900</v>
+        <v>619000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>859900</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>789900</v>
+        <v>1426000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_2023</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>1426000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>789900</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_2023</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1006900</v>
+        <v>1269900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_cng</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>1269900</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>1006900</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/vesta_cng</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>789900</v>
+        <v>1299900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>789900</t>
+          <t>1299900</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1297900</v>
+        <v>423000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>423000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>496900</v>
+        <v>444000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/xray_2016</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>444000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>496900</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/xray_2016</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>604000</v>
+        <v>476000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/xray_cross</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>604000</t>
+          <t>476000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>604000</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lada/xray_cross</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>674000</v>
+        <v>954000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/murman</t>
+          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>954000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>674000</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/murman</t>
+          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>639900</v>
+        <v>695000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/myway</t>
+          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>695000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>639900</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/myway</t>
+          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>426600</v>
+        <v>614000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/solano2</t>
+          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>426600</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>426600</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/solano2</t>
+          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>414000</v>
+        <v>493000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/x50</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>414000</t>
+          <t>493000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>414000</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/x50</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>435000</v>
+        <v>628000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>435000</t>
+          <t>628000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>435000</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>719000</v>
+        <v>697000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/x70</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>719000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>719000</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/lifan/x70</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1399900</v>
+        <v>523000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>523000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1229900</v>
+        <v>681000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/livan/x3pro</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>1229900</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/livan/x3pro</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1579900</v>
+        <v>721000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1049000</v>
+        <v>1537000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>1049000</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/mitsubishi/asx_my20</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1537000</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Eclipse Cross</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1788000</v>
+        <v>1807000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/mitsubishi/eclipse_cross</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>1788000</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/mitsubishi/eclipse_cross</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1807000</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1303100</v>
+        <v>1187000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/mitsubishi/outlander_2019</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>1303100</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/mitsubishi/outlander_2019</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1187000</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1170000</v>
+        <v>615000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/moskvich/mos_3</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>1170000</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/moskvich/mos_3</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>3450000</v>
+        <v>2128000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/moskvich/moskvich_3e</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>3450000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>3450000</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/moskvich/moskvich_3e</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2039000</v>
+        <v>2421000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/murano_2016</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>2039000</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/murano_2016</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1077000</v>
+        <v>1749300</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1077000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>1077000</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>619000</v>
+        <v>1407000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/terrano</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>619000</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/terrano</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1426000</v>
+        <v>1426600</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1426000</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="H162" t="n">
-        <v>1426000</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1269900</v>
+        <v>1444800</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/omoda/c5</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1269900</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>1269900</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/omoda/c5</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1299900</v>
+        <v>3049000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/omoda/s5</t>
+          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1299900</t>
+          <t>3049000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>1299900</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/omoda/s5</t>
+          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>423000</v>
+        <v>4549000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/ravon/nexia_r3</t>
+          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>423000</t>
+          <t>4549000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>423000</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/ravon/nexia_r3</t>
+          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>444000</v>
+        <v>585000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/ravon/r2</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>444000</t>
+          <t>585000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>444000</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/ravon/r2</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>476000</v>
+        <v>659000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/ravon/r4</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>476000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>476000</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/ravon/r4</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>954000</v>
+        <v>677000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/arkana</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>954000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>954000</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/arkana</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>695000</v>
+        <v>1265000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/duster_2021</t>
-        </is>
-      </c>
-      <c r="H169" t="n">
-        <v>695000</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/duster_2021</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1265000</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>695000</v>
+        <v>1829000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>695000</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>614000</v>
+        <v>662400</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/kaptur_2020</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>614000</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/kaptur_2020</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>493000</v>
+        <v>1406900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/logan_new_2018</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>493000</t>
+          <t>1406900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="H172" t="n">
-        <v>493000</v>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/logan_new_2018</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>628000</v>
+        <v>1534900</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/logan_stepway</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>628000</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="H173" t="n">
-        <v>628000</v>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/logan_stepway</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>697000</v>
+        <v>1062600</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>1062600</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
-        </is>
-      </c>
-      <c r="H174" t="n">
-        <v>697000</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>523000</v>
+        <v>844600</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/sandero_2018</t>
+          <t>https://vlg-autotrade.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>523000</t>
+          <t>844600</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="H175" t="n">
-        <v>523000</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/sandero_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>566</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Sandero Stepway</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>681000</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/sandero_stepway_2018</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>681000</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="H176" t="n">
-        <v>681000</v>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/sandero_stepway_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>567</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Stepway City</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>721000</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/sandero_stepway_city_2018</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>721000</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>721000</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/renault/sandero_stepway_city_2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>571</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Karoq</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>1537000</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>1537000</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="H178" t="n">
-        <v>1537000</v>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Kodiaq</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>1807000</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="H179" t="n">
-        <v>1807000</v>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Kodiaq New</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>1807000</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>1807000</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Octavia</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>1187000</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>1187000</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Octavia New</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>1187000</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>1187000</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Rapid</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>615000</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>615000</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="H183" t="n">
-        <v>615000</v>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Superb</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>2128000</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/superb_2019</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>2128000</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="H184" t="n">
-        <v>2128000</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/superb_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Superb Combi</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>2421000</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/superb_combi_2019</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>2421000</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>2421000</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/skoda/superb_combi_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>594</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>1749300</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>1749300</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>HS</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>1407000</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>1407000</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>596</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>KRS</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>1426600</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>1426600</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>KRX</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>1444800</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>614</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>TANK</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>3049000</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/tank/300</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>3049000</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="H190" t="n">
-        <v>3049000</v>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/tank/300</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>TANK</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>4549000</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/tank/500</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>4549000</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>4549000</v>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/tank/500</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>623</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>CH-R</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>1832000</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/toyota/c-hr_2019</t>
-        </is>
-      </c>
-      <c r="H192" t="n">
-        <v>1832000</v>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/toyota/c-hr_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Corolla</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>1142000</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/toyota/Corolla_2019</t>
-        </is>
-      </c>
-      <c r="H193" t="n">
-        <v>1142000</v>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/toyota/Corolla_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>RAV4</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/toyota/Rav4_2019</t>
-        </is>
-      </c>
-      <c r="H194" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/toyota/Rav4_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>633</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Hunter</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>585000</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>585000</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="H195" t="n">
-        <v>585000</v>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Patriot</t>
-        </is>
-      </c>
-      <c r="D196" t="n">
-        <v>659000</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>659000</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>659000</v>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Patriot Pickup</t>
-        </is>
-      </c>
-      <c r="D197" t="n">
-        <v>677000</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>677000</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>637</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>677000</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>677000</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Jetta</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1265000</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/jetta_2020</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>1265000</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>1265000</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/jetta_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>649</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Passat</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>1829000</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/passat_2020</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>1829000</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="H200" t="n">
-        <v>1829000</v>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/passat_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>662400</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>662400</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="H201" t="n">
-        <v>662400</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>653</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Taos</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>1406900</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>1406900</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="H202" t="n">
-        <v>1406900</v>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>1534900</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="H203" t="n">
-        <v>1534900</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Tiguan New</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>1534900</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>1534900</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Coupa</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>1062600</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>1062600</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>844600</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>844600</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
           <t>https://vlg-autotrade.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H206" t="n">
-        <v>844600</v>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>https://volgograd-autostore.ru/catalog/zotye/t600</t>
         </is>
       </c>
     </row>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,7 +3096,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3106,32 +3106,32 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2099930</v>
+        <v>2631300</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3141,67 +3141,67 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2359900</v>
+        <v>2099930</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2359900</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>840000</v>
+        <v>2359900</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>2359900</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
+          <t>https://vlg-autotrade.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3211,32 +3211,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1140000</v>
+        <v>840000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3246,67 +3246,67 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1299000</v>
+        <v>1140000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1209000</v>
+        <v>1299000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-autotrade.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3316,32 +3316,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1367650</v>
+        <v>1209000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1367650</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3351,32 +3351,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1740000</v>
+        <v>1367650</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>1367650</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3386,67 +3386,67 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2197900</v>
+        <v>1740000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1740000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1129900</v>
+        <v>2197900</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
+          <t>https://vlg-autotrade.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3456,32 +3456,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1239900</v>
+        <v>1129900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3491,32 +3491,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1194900</v>
+        <v>1239900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1194900</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3526,32 +3526,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1299000</v>
+        <v>1194900</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1194900</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3561,32 +3561,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>699900</v>
+        <v>1299000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>699900</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3596,32 +3596,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1534900</v>
+        <v>699900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>699900</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3631,32 +3631,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>589900</v>
+        <v>1534900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>589900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3666,32 +3666,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>807900</v>
+        <v>589900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>807900</t>
+          <t>589900</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3701,32 +3701,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>758900</v>
+        <v>807900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3736,32 +3736,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>962900</v>
+        <v>758900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3771,32 +3771,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>884900</v>
+        <v>962900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3806,32 +3806,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1829000</v>
+        <v>884900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3841,67 +3841,67 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>962900</v>
+        <v>1829000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>304400</v>
+        <v>962900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>304400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3911,32 +3911,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>318500</v>
+        <v>304400</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>304400</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3946,32 +3946,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>315500</v>
+        <v>318500</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>318500</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3981,32 +3981,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>298500</v>
+        <v>315500</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>298500</t>
+          <t>315500</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4016,32 +4016,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>412500</v>
+        <v>298500</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>298500</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4051,32 +4051,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>290900</v>
+        <v>412500</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4086,32 +4086,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>567900</v>
+        <v>290900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>290900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4121,32 +4121,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>480000</v>
+        <v>567900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>480000</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4156,32 +4156,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>481000</v>
+        <v>480000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>481000</t>
+          <t>480000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4191,32 +4191,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>567000</v>
+        <v>481000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>567000</t>
+          <t>481000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4226,32 +4226,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>468900</v>
+        <v>567000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>468900</t>
+          <t>567000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4261,32 +4261,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>568900</v>
+        <v>468900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>568900</t>
+          <t>468900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>599000</v>
+        <v>568900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>568900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>487000</v>
+        <v>599000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>487000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4366,32 +4366,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>913900</v>
+        <v>487000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>487000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4401,32 +4401,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1052900</v>
+        <v>913900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1052900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4436,32 +4436,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>913900</v>
+        <v>1052900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1052900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4471,32 +4471,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1028900</v>
+        <v>913900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4506,32 +4506,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1051900</v>
+        <v>1028900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1051900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4541,32 +4541,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>859900</v>
+        <v>1051900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>859900</t>
+          <t>1051900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4576,32 +4576,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>821900</v>
+        <v>859900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>859900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4611,32 +4611,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1006900</v>
+        <v>821900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4646,32 +4646,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>789900</v>
+        <v>1006900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>789900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4681,32 +4681,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1297900</v>
+        <v>789900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>789900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4716,32 +4716,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4751,67 +4751,67 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>604000</v>
+        <v>496900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>604000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>674000</v>
+        <v>604000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>604000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
+          <t>https://vlg-autotrade.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4821,32 +4821,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>639900</v>
+        <v>674000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4856,32 +4856,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>426600</v>
+        <v>639900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>426600</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4891,32 +4891,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>414000</v>
+        <v>426600</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>414000</t>
+          <t>426600</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4926,32 +4926,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>435000</v>
+        <v>414000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>435000</t>
+          <t>414000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4961,67 +4961,67 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>719000</v>
+        <v>435000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>719000</t>
+          <t>435000</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1399900</v>
+        <v>719000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>719000</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5031,32 +5031,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1229900</v>
+        <v>1399900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5066,67 +5066,67 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1579900</v>
+        <v>1229900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1170000</v>
+        <v>1579900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
+          <t>https://vlg-autotrade.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5136,67 +5136,67 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>3450000</v>
+        <v>1170000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3450000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2039000</v>
+        <v>3450000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>3450000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
+          <t>https://vlg-autotrade.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5206,32 +5206,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1077000</v>
+        <v>2039000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1077000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5241,32 +5241,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>619000</v>
+        <v>1077000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1077000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5276,67 +5276,67 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1426000</v>
+        <v>619000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1426000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1269900</v>
+        <v>1426000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1269900</t>
+          <t>1426000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
+          <t>https://vlg-autotrade.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5346,67 +5346,67 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1299900</v>
+        <v>1269900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1299900</t>
+          <t>1269900</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>423000</v>
+        <v>1299900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>423000</t>
+          <t>1299900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
+          <t>https://vlg-autotrade.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5416,32 +5416,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>444000</v>
+        <v>423000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>444000</t>
+          <t>423000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5451,67 +5451,67 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>476000</v>
+        <v>444000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>476000</t>
+          <t>444000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>954000</v>
+        <v>476000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>954000</t>
+          <t>476000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
+          <t>https://vlg-autotrade.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5521,32 +5521,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>695000</v>
+        <v>954000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>695000</t>
+          <t>954000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5556,32 +5556,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>614000</v>
+        <v>695000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>695000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5591,32 +5591,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>493000</v>
+        <v>614000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>493000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5626,32 +5626,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>628000</v>
+        <v>493000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>628000</t>
+          <t>493000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5661,32 +5661,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>697000</v>
+        <v>628000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>628000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5696,32 +5696,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>523000</v>
+        <v>697000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>523000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5731,32 +5731,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>681000</v>
+        <v>523000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>681000</t>
+          <t>523000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5766,67 +5766,67 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>721000</v>
+        <v>681000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1537000</v>
+        <v>721000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1537000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-autotrade.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5836,32 +5836,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1807000</v>
+        <v>1537000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1537000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5871,32 +5871,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1187000</v>
+        <v>1807000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1187000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5906,32 +5906,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>615000</v>
+        <v>1187000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1187000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5941,32 +5941,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2128000</v>
+        <v>615000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5976,67 +5976,67 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2421000</v>
+        <v>2128000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1749300</v>
+        <v>2421000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
+          <t>https://vlg-autotrade.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6046,32 +6046,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6081,32 +6081,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6116,67 +6116,67 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3049000</v>
+        <v>1444800</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3049000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
+          <t>https://vlg-autotrade.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6186,67 +6186,67 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4549000</v>
+        <v>3049000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
+          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>4549000</t>
+          <t>3049000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
+          <t>https://vlg-autotrade.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>585000</v>
+        <v>4549000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>585000</t>
+          <t>4549000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-autotrade.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6256,32 +6256,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>659000</v>
+        <v>585000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>585000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6291,67 +6291,67 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>677000</v>
+        <v>659000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>677000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1265000</v>
+        <v>677000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6361,32 +6361,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1829000</v>
+        <v>1265000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6396,32 +6396,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6431,32 +6431,32 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1406900</v>
+        <v>662400</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1406900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6466,93 +6466,128 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1534900</v>
+        <v>1406900</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1406900</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1062600</v>
+        <v>1534900</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1062600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1062600</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1062600</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D176" t="n">
         <v>844600</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>844600</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6246,42 +6246,42 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>585000</v>
+        <v>2370600</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-autotrade.ru/auto/toyota/land_cruiser_prado/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>585000</t>
+          <t>2370600</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-autotrade.ru/auto/toyota/land_cruiser_prado/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6291,32 +6291,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>659000</v>
+        <v>585000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>585000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6326,67 +6326,67 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>677000</v>
+        <v>659000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>677000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1265000</v>
+        <v>677000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-autotrade.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6396,32 +6396,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1829000</v>
+        <v>1265000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6431,32 +6431,32 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6466,32 +6466,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1406900</v>
+        <v>662400</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1406900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6501,93 +6501,128 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1534900</v>
+        <v>1406900</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1406900</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1062600</v>
+        <v>1534900</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1062600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-autotrade.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1062600</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1062600</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://vlg-autotrade.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D177" t="n">
         <v>844600</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>844600</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>https://vlg-autotrade.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,20 +449,10 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>vlg-autotrade.ru</t>
+          <t>volgograd-autostore.ru_price</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
-        <is>
-          <t>vlg-autotrade.ru_price</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>volgograd-autostore.ru</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>volgograd-autostore.ru</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,6312 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>volgograd-autostore.ru_price</t>
+          <t>https://vlg-auto34.ru_price</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>volgograd-autostore.ru</t>
+          <t>https://vlg-auto34.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BJ40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3559000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3559000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/bj40/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>U5 Plus</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1439000</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1439000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X35</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1459000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/x35/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/x35/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BAIC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X55</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/x55/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2080000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/baic/x55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alsvin</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>969900</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>969900</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS35 Plus New</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1449900</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1449900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS55</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>767000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>767000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS55 Plus</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1773900</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1773900</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CS75FL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1432900</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1432900</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CS85 Coupe</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2299900</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CS95</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3849900</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3849900</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Eado Plus</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1499900</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1499900</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Hunter Plus</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2809900</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2809900</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lamore</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1939900</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1939900</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UNI-K</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3039900</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3039900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UNI-T</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1969900</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1969900</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Changan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>UNI-V</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1779900</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1779900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Arrizo 8</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2649000</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2649000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tiggo 3</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>661900</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>661900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tiggo 4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>816900</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>816900</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tiggo 4 New</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1631000</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1631000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tiggo 4 Pro</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1029900</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1029900</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tiggo 5</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>640900</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>640900</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tiggo 7</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>987900</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>987900</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tiggo 7 Pro</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1087900</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1087900</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tiggo 7 Pro Max</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1519900</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1519900</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tiggo 7 Pro Max New</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1939000</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1939000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tiggo 8</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1239900</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1239900</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tiggo 8 Pro</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1179900</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1179900</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tiggo 8 Pro Max</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2949900</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2949900</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chery</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tiggo 8 Pro Max New</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3810000</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3810000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cobalt</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>577900</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>577900</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Nexia</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>527900</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>527900</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Spark</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>587900</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>587900</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LX</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>RX</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4550000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TXL</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EXEED</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>VX</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2455900</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2455900</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bestune B70</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1658000</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1658000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Bestune T55</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1558610</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1558610</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Bestune T77</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1455000</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1455000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Bestune T99</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2250000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>X40</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>898000</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>898000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FAW</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>X80</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>938000</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Gac</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GS3</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1379400</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1379400</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gac</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GS5</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>905000</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>905000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Gac</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GS8</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1445000</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1445000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1117990</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1117990</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Atlas New</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1994990</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1994990</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Atlas Pro</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1494990</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1494990</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Belgee X50</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1585990</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/belgee_x50/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1585990</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/belgee_x50/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Coolray</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>805990</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>805990</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Coolray New</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1544990</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1544990</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Emgrand New</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1149990</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1149990</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Emgrand X7</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>867990</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>867990</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>987990</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>987990</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Monjaro</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2979990</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2979990</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Okavango New</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2414993</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2414993</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Geely</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tugella New</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1859990</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1859990</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dargo</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1719000</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1719000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dargo X</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2269000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2269000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>F7 New</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1119000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>F7x New</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1589400</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1589400</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1137000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1137000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1803000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1803000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Jolion</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>529000</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>529000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Jolion New</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1149000</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Haval</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Creta New</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>919000</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>919000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Elantra New</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1007000</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1007000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>615000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>615000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sonata</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1432000</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1432000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Hyundai</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tucson New</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1429000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1429000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>709000</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>709000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>JAC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1129000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1129000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>JAECOO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>J7</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2389900</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2389900</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>JAECOO</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2669400</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2669400</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Dashing</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1459900</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1459900</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2631300</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2631300</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>X70 Plus</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2099930</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2099930</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Jetour</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>X90 Plus</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2359900</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2359900</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>VA3</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>840000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>840000</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>VS5</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1140000</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>VS7</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1209000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>X3</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1367650</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1367650</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>X3 Pro</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1740000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>KAIYI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>X7 Kunlun</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2197900</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2197900</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ceed</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1129900</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1129900</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ceed SW</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1239900</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1239900</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cerato New</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1194900</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1194900</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1299000</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Picanto New</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>699900</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>699900</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ProCeed</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rio New</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>589900</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>589900</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rio X</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>807900</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>807900</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rio X-Line</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>758900</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>758900</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Seltos</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>962900</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>962900</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Soul</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>884900</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>884900</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sportage 5</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>XCeed</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>962900</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>962900</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Granta Cross</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>304400</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>304400</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Granta Hatchback</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>318500</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>318500</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Granta Liftback</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>315500</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>315500</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Granta Sedan</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>298500</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>298500</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Granta Sedan Drive Active</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>412500</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>412500</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Granta Universal</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>290900</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>290900</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Largus Cross New</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>567900</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>567900</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Largus New</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>480000</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Largus Фургон New</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>481000</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>481000</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Niva</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>567000</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>567000</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Niva Legend 3 двери</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>468900</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>468900</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Niva Legend 5 дверей</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>568900</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>568900</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Niva Off-Road</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>599000</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>599000</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Niva Travel</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>487000</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>487000</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Vesta Cross</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>913900</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>913900</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Vesta Cross New</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1052900</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1052900</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Vesta SW</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>913900</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>913900</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Vesta SW Cross</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1028900</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1028900</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Vesta SW Cross New</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1051900</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1051900</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Vesta SW New</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>859900</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>859900</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Vesta Sedan</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>821900</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>821900</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Vesta Sedan CNG</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1006900</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1006900</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Vesta Sedan New</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>789900</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>789900</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Vesta Sport</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1297900</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1297900</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Xray</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>496900</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>496900</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Xray Cross</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>604000</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>604000</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Murman</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>674000</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>674000</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>MyWay</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>639900</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>639900</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Solano 2</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>426600</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>426600</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>X50</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>414000</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>414000</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>X60</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>435000</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>435000</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>X70</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>719000</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>719000</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>S6 Pro</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>X3 Pro</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1229900</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1229900</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>X6 Pro</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1579900</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1579900</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1170000</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3e</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3450000</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3450000</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Murano</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>2039000</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2039000</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Qashqai</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1077000</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1077000</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Terrano</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>619000</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>619000</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>X-trail</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1426000</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1426000</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1269900</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1269900</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1299900</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1299900</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ravon</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Nexia R3</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>423000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>423000</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ravon</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>444000</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>444000</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ravon</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>476000</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>476000</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Arkana</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>954000</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>954000</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Duster New</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>695000</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>695000</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Kaptur</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>614000</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>614000</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Logan</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>493000</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>493000</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Logan Stepway</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>628000</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>628000</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Logan Stepway City</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>697000</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>697000</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sandero</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>523000</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>523000</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sandero Stepway</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>681000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>681000</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Stepway City</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>721000</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>721000</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Karoq</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1537000</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1537000</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Kodiaq New</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1807000</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1807000</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Octavia New</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1187000</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1187000</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rapid</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>615000</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>615000</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Superb</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>2128000</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2128000</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Superb Combi</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2421000</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2421000</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1749300</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1749300</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1407000</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>KRS</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1426600</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1426600</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>KRX</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1444800</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1444800</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>3049000</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3049000</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>4549000</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4549000</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Land Cruiser Prado</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2370600</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2370600</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>585000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>585000</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Patriot</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>659000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>659000</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Patriot Pickup</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>677000</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>677000</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1265000</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1265000</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>662400</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1406900</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1406900</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1062600</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1062600</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>T600</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>844600</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>844600</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
         </is>
       </c>
     </row>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2729,14 +2729,14 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,32 +2746,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1803000</v>
+        <v>2219400</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1803000</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>529000</v>
+        <v>1803000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>529000</t>
+          <t>1803000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1149000</v>
+        <v>529000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>529000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,67 +2851,67 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1299000</v>
+        <v>1149000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>919000</v>
+        <v>1299000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>919000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1007000</v>
+        <v>919000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1007000</t>
+          <t>919000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>615000</v>
+        <v>1007000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1007000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1432000</v>
+        <v>615000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1432000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,67 +3026,67 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1429000</v>
+        <v>1432000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1429000</t>
+          <t>1432000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>709000</v>
+        <v>1429000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1429000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,67 +3096,67 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1129000</v>
+        <v>709000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2389900</v>
+        <v>1129000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2389900</t>
+          <t>1129000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,67 +3166,67 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2669400</v>
+        <v>2389900</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>2389900</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1459900</v>
+        <v>2669400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1459900</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2631300</v>
+        <v>1459900</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1459900</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2099930</v>
+        <v>2631300</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,67 +3306,67 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2359900</v>
+        <v>2099930</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2359900</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>840000</v>
+        <v>2359900</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>2359900</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1140000</v>
+        <v>840000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,67 +3411,67 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1299000</v>
+        <v>1140000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1209000</v>
+        <v>1299000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1367650</v>
+        <v>1209000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1367650</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1740000</v>
+        <v>1367650</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>1367650</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,67 +3551,67 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2197900</v>
+        <v>1740000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1740000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1129900</v>
+        <v>2197900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,32 +3621,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1239900</v>
+        <v>1129900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1194900</v>
+        <v>1239900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1194900</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1299000</v>
+        <v>1194900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1194900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>699900</v>
+        <v>1299000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>699900</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1534900</v>
+        <v>699900</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>699900</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>589900</v>
+        <v>1534900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>589900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>807900</v>
+        <v>589900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>807900</t>
+          <t>589900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>758900</v>
+        <v>807900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>962900</v>
+        <v>758900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>884900</v>
+        <v>962900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1829000</v>
+        <v>884900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,67 +4006,67 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>962900</v>
+        <v>1829000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>304400</v>
+        <v>962900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>304400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>318500</v>
+        <v>304400</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>304400</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>315500</v>
+        <v>318500</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>318500</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>298500</v>
+        <v>315500</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>298500</t>
+          <t>315500</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>412500</v>
+        <v>298500</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>298500</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>290900</v>
+        <v>412500</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>567900</v>
+        <v>290900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>290900</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>480000</v>
+        <v>567900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>480000</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>481000</v>
+        <v>480000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>481000</t>
+          <t>480000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>567000</v>
+        <v>481000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>567000</t>
+          <t>481000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>468900</v>
+        <v>567000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>468900</t>
+          <t>567000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>568900</v>
+        <v>468900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>568900</t>
+          <t>468900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>599000</v>
+        <v>568900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>568900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>487000</v>
+        <v>599000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>487000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>913900</v>
+        <v>487000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>487000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1052900</v>
+        <v>913900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1052900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>913900</v>
+        <v>1052900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1052900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1028900</v>
+        <v>913900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1051900</v>
+        <v>1028900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1051900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>859900</v>
+        <v>1051900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>859900</t>
+          <t>1051900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>821900</v>
+        <v>859900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>859900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1006900</v>
+        <v>821900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>789900</v>
+        <v>1006900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>789900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1297900</v>
+        <v>789900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>789900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,67 +4916,67 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>604000</v>
+        <v>496900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>604000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>674000</v>
+        <v>604000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>604000</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4986,32 +4986,32 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>639900</v>
+        <v>674000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>426600</v>
+        <v>639900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>426600</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,32 +5056,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>414000</v>
+        <v>426600</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>414000</t>
+          <t>426600</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>435000</v>
+        <v>414000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>435000</t>
+          <t>414000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,67 +5126,67 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>719000</v>
+        <v>435000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>719000</t>
+          <t>435000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1399900</v>
+        <v>719000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>719000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1229900</v>
+        <v>1399900</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,67 +5231,67 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1579900</v>
+        <v>1229900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1170000</v>
+        <v>1579900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5301,67 +5301,67 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>3450000</v>
+        <v>1170000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>3450000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2039000</v>
+        <v>3450000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>3450000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5371,32 +5371,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1077000</v>
+        <v>2039000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1077000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,32 +5406,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>619000</v>
+        <v>1077000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1077000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,67 +5441,67 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1426000</v>
+        <v>619000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1426000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1269900</v>
+        <v>1426000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1269900</t>
+          <t>1426000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5511,67 +5511,67 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1299900</v>
+        <v>1269900</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1299900</t>
+          <t>1269900</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>423000</v>
+        <v>1299900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>423000</t>
+          <t>1299900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5581,32 +5581,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>444000</v>
+        <v>423000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>444000</t>
+          <t>423000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,67 +5616,67 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>476000</v>
+        <v>444000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>476000</t>
+          <t>444000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>954000</v>
+        <v>476000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>954000</t>
+          <t>476000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5686,32 +5686,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>695000</v>
+        <v>954000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>695000</t>
+          <t>954000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,32 +5721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>614000</v>
+        <v>695000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>695000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>493000</v>
+        <v>614000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>493000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>628000</v>
+        <v>493000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>628000</t>
+          <t>493000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>697000</v>
+        <v>628000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>628000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>523000</v>
+        <v>697000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>523000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>681000</v>
+        <v>523000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>681000</t>
+          <t>523000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,67 +5931,67 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>721000</v>
+        <v>681000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1537000</v>
+        <v>721000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1537000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6001,32 +6001,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1807000</v>
+        <v>1537000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1537000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,32 +6036,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1187000</v>
+        <v>1807000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1187000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,32 +6071,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>615000</v>
+        <v>1187000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1187000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6106,32 +6106,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2128000</v>
+        <v>615000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,67 +6141,67 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2421000</v>
+        <v>2128000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1749300</v>
+        <v>2421000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6211,32 +6211,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,32 +6246,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,67 +6281,67 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>3049000</v>
+        <v>1444800</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3049000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6351,102 +6351,102 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>4549000</v>
+        <v>3049000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4549000</t>
+          <t>3049000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>2370600</v>
+        <v>4549000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2370600</t>
+          <t>4549000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>585000</v>
+        <v>2370600</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>585000</t>
+          <t>2370600</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -6456,32 +6456,32 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>659000</v>
+        <v>585000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>585000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6491,67 +6491,67 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>677000</v>
+        <v>659000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>677000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1265000</v>
+        <v>677000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6561,32 +6561,32 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1829000</v>
+        <v>1265000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6596,32 +6596,32 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6631,32 +6631,32 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1406900</v>
+        <v>662400</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1406900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6666,93 +6666,128 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1534900</v>
+        <v>1406900</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1406900</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1062600</v>
+        <v>1534900</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1062600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1062600</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1062600</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D182" t="n">
         <v>844600</v>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>844600</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,77 +601,77 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>969900</v>
+        <v>1585990</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>1585990</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x50/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1449900</v>
+        <v>1695714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>1695714</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x70/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>767000</v>
+        <v>969900</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>767000</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -716,32 +716,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1773900</v>
+        <v>1449900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1773900</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,32 +751,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1432900</v>
+        <v>767000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1432900</t>
+          <t>767000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -786,32 +786,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2299900</v>
+        <v>1773900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2299900</t>
+          <t>1773900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -821,32 +821,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3849900</v>
+        <v>1432900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3849900</t>
+          <t>1432900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -856,32 +856,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1499900</v>
+        <v>2299900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1499900</t>
+          <t>2299900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -891,32 +891,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2809900</v>
+        <v>3849900</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2809900</t>
+          <t>3849900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,32 +926,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1939900</v>
+        <v>1499900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1939900</t>
+          <t>1499900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -961,32 +961,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3039900</v>
+        <v>2809900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3039900</t>
+          <t>2809900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1969900</v>
+        <v>1939900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1969900</t>
+          <t>1939900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1031,102 +1031,102 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1779900</v>
+        <v>3039900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1779900</t>
+          <t>3039900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2649000</v>
+        <v>1969900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>1969900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>661900</v>
+        <v>1779900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>661900</t>
+          <t>1779900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1136,32 +1136,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>816900</v>
+        <v>2649000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>816900</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,32 +1171,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 4 New</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1631000</v>
+        <v>661900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>661900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1206,32 +1206,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1029900</v>
+        <v>816900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>816900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 5</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>640900</v>
+        <v>1631000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>640900</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1276,32 +1276,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>987900</v>
+        <v>1029900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>987900</t>
+          <t>1029900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1311,32 +1311,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 5</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1087900</v>
+        <v>640900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1087900</t>
+          <t>640900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1346,32 +1346,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1519900</v>
+        <v>987900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1519900</t>
+          <t>987900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1939000</v>
+        <v>1087900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>1087900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1416,32 +1416,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1239900</v>
+        <v>1519900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1519900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1179900</v>
+        <v>1939000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1179900</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2949900</v>
+        <v>1239900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2949900</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1521,102 +1521,102 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3810000</v>
+        <v>1179900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3810000</t>
+          <t>1179900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>577900</v>
+        <v>2949900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>2949900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>527900</v>
+        <v>3810000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>527900</t>
+          <t>3810000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1626,102 +1626,102 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>587900</v>
+        <v>577900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>587900</t>
+          <t>577900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1399900</v>
+        <v>527900</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>527900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4550000</v>
+        <v>587900</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4550000</t>
+          <t>587900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1749,14 +1749,14 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1766,102 +1766,102 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2455900</v>
+        <v>4550000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2455900</t>
+          <t>4550000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1658000</v>
+        <v>1399900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1658000</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1558610</v>
+        <v>2455900</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1558610</t>
+          <t>2455900</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1455000</v>
+        <v>1658000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1455000</t>
+          <t>1658000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2250000</v>
+        <v>1558610</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2250000</t>
+          <t>1558610</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>898000</v>
+        <v>1455000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>1455000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1976,102 +1976,102 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>938000</v>
+        <v>2250000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>2250000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1379400</v>
+        <v>898000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1379400</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>905000</v>
+        <v>938000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>905000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2081,102 +2081,102 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1445000</v>
+        <v>1379400</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1379400</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1117990</v>
+        <v>905000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1117990</t>
+          <t>905000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1994990</v>
+        <v>1445000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1994990</t>
+          <t>1445000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2186,32 +2186,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1494990</v>
+        <v>1117990</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1494990</t>
+          <t>1117990</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1585990</v>
+        <v>1994990</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/belgee_x50/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1585990</t>
+          <t>1994990</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/belgee_x50/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>805990</v>
+        <v>1494990</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>805990</t>
+          <t>1494990</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1544990</v>
+        <v>805990</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1544990</t>
+          <t>805990</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1149990</v>
+        <v>1544990</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1149990</t>
+          <t>1544990</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>867990</v>
+        <v>1149990</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>1149990</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>987990</v>
+        <v>867990</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>867990</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2431,32 +2431,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2979990</v>
+        <v>987990</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2979990</t>
+          <t>987990</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2466,32 +2466,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2414993</v>
+        <v>2979990</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>2979990</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,67 +2501,67 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1859990</v>
+        <v>2414993</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>2414993</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1719000</v>
+        <v>1859990</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1719000</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2571,32 +2571,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2269000</v>
+        <v>1719000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
+          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2269000</t>
+          <t>1719000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
+          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2606,32 +2606,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1119000</v>
+        <v>2269000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
+          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1119000</t>
+          <t>2269000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
+          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1199000</v>
+        <v>1119000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
+          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1119000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
+          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,32 +2676,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1589400</v>
+        <v>1199000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1589400</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2711,32 +2711,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1137000</v>
+        <v>1589400</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1589400</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,32 +2746,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2219400</v>
+        <v>1137000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>1137000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1803000</v>
+        <v>2219400</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1803000</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>529000</v>
+        <v>1803000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>529000</t>
+          <t>1803000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1149000</v>
+        <v>529000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>529000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,67 +2886,67 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1299000</v>
+        <v>1149000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>919000</v>
+        <v>1299000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>919000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1007000</v>
+        <v>919000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1007000</t>
+          <t>919000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>615000</v>
+        <v>1007000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1007000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,32 +3026,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1432000</v>
+        <v>615000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1432000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,67 +3061,67 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1429000</v>
+        <v>1432000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1429000</t>
+          <t>1432000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>709000</v>
+        <v>1429000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1429000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3131,67 +3131,67 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1129000</v>
+        <v>709000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2389900</v>
+        <v>1129000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2389900</t>
+          <t>1129000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,67 +3201,67 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2669400</v>
+        <v>2389900</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>2389900</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1459900</v>
+        <v>2669400</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1459900</t>
+          <t>2669400</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2631300</v>
+        <v>1459900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>1459900</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2099930</v>
+        <v>2631300</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>2631300</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,67 +3341,67 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2359900</v>
+        <v>2099930</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2359900</t>
+          <t>2099930</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>840000</v>
+        <v>2359900</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>2359900</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1140000</v>
+        <v>840000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,67 +3446,67 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1299000</v>
+        <v>1140000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1209000</v>
+        <v>1299000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1367650</v>
+        <v>1209000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1367650</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1740000</v>
+        <v>1367650</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>1367650</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,67 +3586,67 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2197900</v>
+        <v>1740000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>1740000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1129900</v>
+        <v>2197900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>2197900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3656,32 +3656,32 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1239900</v>
+        <v>1129900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1194900</v>
+        <v>1239900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1194900</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1299000</v>
+        <v>1194900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1194900</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>699900</v>
+        <v>1299000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>699900</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,32 +3796,32 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1534900</v>
+        <v>699900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>699900</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3831,32 +3831,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>589900</v>
+        <v>1534900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>589900</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,32 +3866,32 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>807900</v>
+        <v>589900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>807900</t>
+          <t>589900</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3901,32 +3901,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>758900</v>
+        <v>807900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,32 +3936,32 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Rio X-Line</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>962900</v>
+        <v>758900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>758900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3971,32 +3971,32 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>884900</v>
+        <v>962900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1829000</v>
+        <v>884900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,67 +4041,67 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>962900</v>
+        <v>1829000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>304400</v>
+        <v>962900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>304400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>318500</v>
+        <v>304400</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>304400</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,32 +4146,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>315500</v>
+        <v>318500</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>318500</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4181,32 +4181,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>298500</v>
+        <v>315500</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>298500</t>
+          <t>315500</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>412500</v>
+        <v>298500</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>298500</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>290900</v>
+        <v>412500</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>412500</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,32 +4286,32 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>567900</v>
+        <v>290900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>290900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4321,32 +4321,32 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>480000</v>
+        <v>567900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>480000</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>481000</v>
+        <v>480000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>481000</t>
+          <t>480000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>567000</v>
+        <v>481000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>567000</t>
+          <t>481000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,32 +4426,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>468900</v>
+        <v>567000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>468900</t>
+          <t>567000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4461,32 +4461,32 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>568900</v>
+        <v>468900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>568900</t>
+          <t>468900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,32 +4496,32 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>599000</v>
+        <v>568900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>568900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4531,32 +4531,32 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>487000</v>
+        <v>599000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>487000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>913900</v>
+        <v>487000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>487000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,32 +4601,32 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1052900</v>
+        <v>913900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1052900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>913900</v>
+        <v>1052900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1052900</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4671,32 +4671,32 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1028900</v>
+        <v>913900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4706,32 +4706,32 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1051900</v>
+        <v>1028900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1051900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4741,32 +4741,32 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>859900</v>
+        <v>1051900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>859900</t>
+          <t>1051900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>821900</v>
+        <v>859900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>859900</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4811,32 +4811,32 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1006900</v>
+        <v>821900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1006900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>789900</v>
+        <v>1006900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>789900</t>
+          <t>1006900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4881,32 +4881,32 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1297900</v>
+        <v>789900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>789900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4916,32 +4916,32 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>496900</v>
+        <v>1297900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>496900</t>
+          <t>1297900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4951,67 +4951,67 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>604000</v>
+        <v>496900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>604000</t>
+          <t>496900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>674000</v>
+        <v>604000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>604000</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5021,32 +5021,32 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>639900</v>
+        <v>674000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>639900</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5056,32 +5056,32 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>426600</v>
+        <v>639900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>426600</t>
+          <t>639900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5091,32 +5091,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>414000</v>
+        <v>426600</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>414000</t>
+          <t>426600</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5126,32 +5126,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>435000</v>
+        <v>414000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>435000</t>
+          <t>414000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5161,67 +5161,67 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>719000</v>
+        <v>435000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>719000</t>
+          <t>435000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1399900</v>
+        <v>719000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>719000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -5231,32 +5231,32 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1229900</v>
+        <v>1399900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1229900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5266,67 +5266,67 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1579900</v>
+        <v>1229900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1579900</t>
+          <t>1229900</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1170000</v>
+        <v>1579900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1579900</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5336,67 +5336,67 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3450000</v>
+        <v>1170000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>3450000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2039000</v>
+        <v>3450000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2039000</t>
+          <t>3450000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5406,32 +5406,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1077000</v>
+        <v>2039000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1077000</t>
+          <t>2039000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5441,32 +5441,32 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>619000</v>
+        <v>1077000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1077000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5476,67 +5476,67 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1426000</v>
+        <v>619000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1426000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1269900</v>
+        <v>1426000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1269900</t>
+          <t>1426000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5546,67 +5546,67 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1299900</v>
+        <v>1269900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1299900</t>
+          <t>1269900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>423000</v>
+        <v>1299900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>423000</t>
+          <t>1299900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5616,32 +5616,32 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>444000</v>
+        <v>423000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>444000</t>
+          <t>423000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5651,67 +5651,67 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>476000</v>
+        <v>444000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>476000</t>
+          <t>444000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>954000</v>
+        <v>476000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>954000</t>
+          <t>476000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5721,32 +5721,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>695000</v>
+        <v>954000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>695000</t>
+          <t>954000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5756,32 +5756,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>614000</v>
+        <v>695000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>695000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5791,32 +5791,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>493000</v>
+        <v>614000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>493000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5826,32 +5826,32 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>628000</v>
+        <v>493000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>628000</t>
+          <t>493000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5861,32 +5861,32 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>697000</v>
+        <v>628000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>697000</t>
+          <t>628000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5896,32 +5896,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>523000</v>
+        <v>697000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>523000</t>
+          <t>697000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5931,32 +5931,32 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>681000</v>
+        <v>523000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>681000</t>
+          <t>523000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5966,67 +5966,67 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>721000</v>
+        <v>681000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>721000</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1537000</v>
+        <v>721000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1537000</t>
+          <t>721000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6036,32 +6036,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1807000</v>
+        <v>1537000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1537000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6071,32 +6071,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1187000</v>
+        <v>1807000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1187000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6106,32 +6106,32 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>615000</v>
+        <v>1187000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1187000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6141,32 +6141,32 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2128000</v>
+        <v>615000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2128000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6176,67 +6176,67 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2421000</v>
+        <v>2128000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2421000</t>
+          <t>2128000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1749300</v>
+        <v>2421000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>2421000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6246,32 +6246,32 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1407000</v>
+        <v>1749300</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6281,32 +6281,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1426600</v>
+        <v>1407000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1426600</t>
+          <t>1407000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6316,67 +6316,67 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1444800</v>
+        <v>1426600</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1444800</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3049000</v>
+        <v>1444800</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>3049000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6386,102 +6386,102 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>4549000</v>
+        <v>3049000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>4549000</t>
+          <t>3049000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2370600</v>
+        <v>4549000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2370600</t>
+          <t>4549000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>585000</v>
+        <v>2370600</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>585000</t>
+          <t>2370600</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
+          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6491,32 +6491,32 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>659000</v>
+        <v>585000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>659000</t>
+          <t>585000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6526,67 +6526,67 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>677000</v>
+        <v>659000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>677000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1265000</v>
+        <v>677000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>677000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6596,32 +6596,32 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1829000</v>
+        <v>1265000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6631,32 +6631,32 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>662400</v>
+        <v>1829000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>1829000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6666,32 +6666,32 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1406900</v>
+        <v>662400</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1406900</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6701,93 +6701,128 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1534900</v>
+        <v>1406900</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1406900</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1062600</v>
+        <v>1534900</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1062600</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1062600</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1062600</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D183" t="n">
         <v>844600</v>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>844600</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,32 +471,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BJ40</t>
+          <t>U5 Plus</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3559000</v>
+        <v>1248000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/bj40/</t>
+          <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3559000</t>
+          <t>1248000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/bj40/</t>
+          <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -506,32 +506,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>U5 Plus</t>
+          <t>X35</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1439000</v>
+        <v>1335000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
+          <t>https://vlg-auto34.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1439000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
+          <t>https://vlg-auto34.ru/auto/baic/x35/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -541,67 +541,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>X35</t>
+          <t>X55</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1459000</v>
+        <v>1782000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/x35/</t>
+          <t>https://vlg-auto34.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1782000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/x35/</t>
+          <t>https://vlg-auto34.ru/auto/baic/x55/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAIC</t>
+          <t>Belgee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>X55</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2080000</v>
+        <v>1488114</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/x55/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2080000</t>
+          <t>1488114</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/baic/x55/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x50/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -611,67 +611,67 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1585990</v>
+        <v>1695714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/belgee/x50/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x70/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1585990</t>
+          <t>1695714</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/belgee/x50/</t>
+          <t>https://vlg-auto34.ru/auto/belgee/x70/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Belgee</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Alsvin</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1695714</v>
+        <v>767000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/belgee/x70/</t>
+          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>767000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/belgee/x70/</t>
+          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alsvin</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>969900</v>
+        <v>1541940</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>1541940</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -716,32 +716,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1449900</v>
+        <v>969900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1449900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,32 +751,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>767000</v>
+        <v>1691940</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>767000</t>
+          <t>1691940</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -786,32 +786,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1773900</v>
+        <v>2255940</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1773900</t>
+          <t>2255940</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -821,32 +821,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1432900</v>
+        <v>2669940</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1432900</t>
+          <t>2669940</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs75fl/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -856,32 +856,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2299900</v>
+        <v>1432900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2299900</t>
+          <t>1432900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -891,32 +891,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3849900</v>
+        <v>1721940</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3849900</t>
+          <t>1721940</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,32 +926,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1499900</v>
+        <v>2381940</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1499900</t>
+          <t>2381940</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -961,32 +961,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2809900</v>
+        <v>1841940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2809900</t>
+          <t>1841940</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/hunter_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -996,137 +996,137 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1939900</v>
+        <v>1779900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1939900</t>
+          <t>1779900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3039900</v>
+        <v>1740000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3039900</t>
+          <t>1740000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1969900</v>
+        <v>1182000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1969900</t>
+          <t>1182000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Changan</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1779900</v>
+        <v>1087900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1779900</t>
+          <t>1087900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1136,32 +1136,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2649000</v>
+        <v>1239900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,32 +1171,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>661900</v>
+        <v>1519900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>661900</t>
+          <t>1519900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_3/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1206,32 +1206,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>816900</v>
+        <v>1668000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>816900</t>
+          <t>1668000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 4 New</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1631000</v>
+        <v>1950000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1950000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1276,5555 +1276,3385 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1029900</v>
+        <v>2022000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>2022000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 5</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>640900</v>
+        <v>572340</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>640900</t>
+          <t>572340</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_5/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>987900</v>
+        <v>527900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>987900</t>
+          <t>527900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1087900</v>
+        <v>570540</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1087900</t>
+          <t>570540</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1519900</v>
+        <v>1434000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1519900</t>
+          <t>1434000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1939000</v>
+        <v>2850000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2850000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1239900</v>
+        <v>1424400</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1424400</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1179900</v>
+        <v>1446600</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1179900</t>
+          <t>1446600</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2949900</v>
+        <v>1718400</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2949900</t>
+          <t>1718400</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3810000</v>
+        <v>904800</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3810000</t>
+          <t>904800</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>577900</v>
+        <v>898000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>577900</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>527900</v>
+        <v>1439400</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>527900</t>
+          <t>1439400</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>587900</v>
+        <v>1259400</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>587900</t>
+          <t>1259400</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1399900</v>
+        <v>2399400</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>2399400</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/lx/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4550000</v>
+        <v>2015514</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4550000</t>
+          <t>2015514</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1399900</v>
+        <v>1544990</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1544990</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/txl/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2455900</v>
+        <v>1117990</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2455900</t>
+          <t>1117990</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/vx/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1658000</v>
+        <v>1494990</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1658000</t>
+          <t>1494990</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1558610</v>
+        <v>1310394</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1558610</t>
+          <t>1310394</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1455000</v>
+        <v>2375994</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1455000</t>
+          <t>2375994</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2250000</v>
+        <v>2375994</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2250000</t>
+          <t>2375994</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t99/</t>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>898000</v>
+        <v>1679400</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>1679400</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>938000</v>
+        <v>2339400</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>2339400</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1379400</v>
+        <v>947400</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1379400</t>
+          <t>947400</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>905000</v>
+        <v>1149000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>905000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1445000</v>
+        <v>1367400</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1367400</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1117990</v>
+        <v>1115400</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1117990</t>
+          <t>1115400</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_1/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1994990</v>
+        <v>1289400</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1994990</t>
+          <t>1289400</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1494990</v>
+        <v>815000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1494990</t>
+          <t>815000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>805990</v>
+        <v>1432000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>805990</t>
+          <t>1432000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1544990</v>
+        <v>1432000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1544990</t>
+          <t>1432000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1149990</v>
+        <v>1067400</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1149990</t>
+          <t>1067400</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>867990</v>
+        <v>709000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>867990</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand_x7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>987990</v>
+        <v>1775940</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>987990</t>
+          <t>1775940</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/gs/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2979990</v>
+        <v>2759400</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2979990</t>
+          <t>2759400</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Okavango New</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2414993</v>
+        <v>1493940</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2414993</t>
+          <t>1493940</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/okavango/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1859990</v>
+        <v>2375400</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1859990</t>
+          <t>2375400</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1719000</v>
+        <v>1799940</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1719000</t>
+          <t>1799940</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dargo X</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2269000</v>
+        <v>2087940</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2269000</t>
+          <t>2087940</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/dargo_x/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1119000</v>
+        <v>840000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1119000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1199000</v>
+        <v>1140000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/f7x/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1589400</v>
+        <v>1289400</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1589400</t>
+          <t>1289400</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1137000</v>
+        <v>1209000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1137000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5_i/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2219400</v>
+        <v>1342800</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>1342800</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1803000</v>
+        <v>1508940</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1803000</t>
+          <t>1508940</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h9/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>529000</v>
+        <v>1798740</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>529000</t>
+          <t>1798740</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1149000</v>
+        <v>1239900</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1299000</v>
+        <v>1295940</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1295940</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>919000</v>
+        <v>1129900</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>919000</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1007000</v>
+        <v>807900</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1007000</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>615000</v>
+        <v>860940</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>860940</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1432000</v>
+        <v>962900</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1432000</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1429000</v>
+        <v>2273940</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1429000</t>
+          <t>2273940</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>709000</v>
+        <v>884900</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1129000</v>
+        <v>804400</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>804400</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2389900</v>
+        <v>418500</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2389900</t>
+          <t>418500</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2669400</v>
+        <v>755500</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2669400</t>
+          <t>755500</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1459900</v>
+        <v>398500</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1459900</t>
+          <t>398500</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2631300</v>
+        <v>652500</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2631300</t>
+          <t>652500</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2099930</v>
+        <v>390900</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2099930</t>
+          <t>390900</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2359900</v>
+        <v>1312000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2359900</t>
+          <t>1312000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>840000</v>
+        <v>1096000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>1096000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1140000</v>
+        <v>887000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>887000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1299000</v>
+        <v>1113900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1113900</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1209000</v>
+        <v>1191900</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1191900</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1367650</v>
+        <v>1093000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1367650</t>
+          <t>1093000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1740000</v>
+        <v>823940</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>823940</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2197900</v>
+        <v>796900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2197900</t>
+          <t>796900</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1129900</v>
+        <v>844000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>844000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1239900</v>
+        <v>1399900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1194900</v>
+        <v>1003200</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1194900</t>
+          <t>1003200</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1299000</v>
+        <v>1577940</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1577940</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/k5/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>699900</v>
+        <v>1014000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>699900</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/picanto/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1534900</v>
+        <v>1320000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1534900</t>
+          <t>1320000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/proceed/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>589900</v>
+        <v>1077000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>589900</t>
+          <t>1077000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>807900</v>
+        <v>1426000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>807900</t>
+          <t>1426000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Rio X-Line</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>758900</v>
+        <v>1369900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>758900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x-line/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>962900</v>
+        <v>1277940</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>1277940</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>884900</v>
+        <v>954000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>954000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1829000</v>
+        <v>681000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1829000</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sportage/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>962900</v>
+        <v>493000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>493000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/xceed/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>304400</v>
+        <v>614000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>304400</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>318500</v>
+        <v>523000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>523000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>315500</v>
+        <v>638000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>298500</v>
+        <v>1223000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>298500</t>
+          <t>1223000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>412500</v>
+        <v>1334200</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>412500</t>
+          <t>1334200</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>290900</v>
+        <v>1094000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>1094000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>567900</v>
+        <v>715000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>480000</v>
+        <v>1590000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>480000</t>
+          <t>1590000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>481000</v>
+        <v>1212000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>481000</t>
+          <t>1212000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_furgon/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>567000</v>
+        <v>1236000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>567000</t>
+          <t>1236000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>468900</v>
+        <v>1344600</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>468900</t>
+          <t>1344600</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>568900</v>
+        <v>2699400</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>568900</t>
+          <t>2699400</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>599000</v>
+        <v>4079400</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>4079400</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_off-road/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>487000</v>
+        <v>910800</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>487000</t>
+          <t>910800</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>913900</v>
+        <v>762400</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>762400</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1052900</v>
+        <v>2025540</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1052900</t>
+          <t>2025540</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Vesta SW</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>913900</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>913900</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Vesta SW Cross</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>1028900</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>1028900</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>446</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Vesta SW Cross New</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>1051900</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>1051900</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Vesta SW New</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>859900</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>859900</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Vesta Sedan</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>821900</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>821900</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Vesta Sedan CNG</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>1006900</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>1006900</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cng/</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>439</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Vesta Sedan New</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>789900</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>789900</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Vesta Sport</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>1297900</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>1297900</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>447</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Xray</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>496900</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>496900</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>448</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Lada</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Xray Cross</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>604000</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>604000</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>455</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Lifan</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Murman</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>674000</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>674000</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Lifan</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>MyWay</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>639900</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>639900</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Lifan</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Solano 2</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>426600</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>426600</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Lifan</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>X50</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>414000</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>414000</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Lifan</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>X60</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>435000</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>435000</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Lifan</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>X70</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>719000</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>719000</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Livan</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>S6 Pro</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>1399900</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>1399900</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Livan</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>X3 Pro</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>1229900</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>1229900</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Livan</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>X6 Pro</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>1579900</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>1579900</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Moskvich</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1170000</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>1170000</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>510</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Moskvich</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>3e</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>3450000</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>3450000</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>517</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Murano</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>2039000</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2039000</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>520</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Qashqai</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>1077000</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>1077000</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>522</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Terrano</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>619000</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>619000</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>X-trail</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>1426000</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>1426000</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>OMODA</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>C5</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>1269900</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>1269900</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>OMODA</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>1299900</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>1299900</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>545</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Ravon</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Nexia R3</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>423000</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>423000</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/ravon/nexia_r3/</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Ravon</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>444000</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>444000</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r2/</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>547</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Ravon</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>476000</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>476000</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/ravon/r4/</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Arkana</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>954000</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>954000</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Duster New</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>695000</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>695000</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Kaptur</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>614000</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>614000</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>558</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Logan</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>493000</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>493000</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Logan Stepway</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>628000</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>628000</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>560</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Logan Stepway City</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>697000</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>697000</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway_city/</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>565</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Sandero</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>523000</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>523000</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>566</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Sandero Stepway</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>681000</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>681000</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>567</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Stepway City</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>721000</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>721000</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway_city/</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>571</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Karoq</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>1537000</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>1537000</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Kodiaq New</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>1807000</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>1807000</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Octavia New</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>1187000</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>1187000</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>581</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Rapid</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>615000</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>615000</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Superb</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>2128000</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>2128000</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Skoda</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Superb Combi</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>2421000</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>2421000</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>594</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>1749300</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>1749300</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>HS</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>1407000</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>1407000</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>596</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>KRS</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>1426600</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>1426600</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Solaris</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>KRX</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>1444800</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>614</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>TANK</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>3049000</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>3049000</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>615</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>TANK</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>4549000</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>4549000</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Land Cruiser Prado</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>2370600</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>2370600</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/toyota/land_cruiser_prado/</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>633</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Hunter</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>585000</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>585000</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Patriot</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>659000</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>659000</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Patriot Pickup</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>677000</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>677000</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Jetta</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1265000</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>1265000</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>649</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Passat</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>1829000</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>1829000</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>662400</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>662400</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>653</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Taos</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>1406900</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>1406900</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Tiguan New</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>1534900</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
           <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>1534900</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Coupa</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>1062600</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>1062600</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>844600</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>844600</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/zotye/t600/</t>
         </is>
       </c>
     </row>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,7 +2281,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2309,49 +2309,49 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/sonata/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1432000</v>
+        <v>1067400</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1432000</t>
+          <t>1067400</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2361,67 +2361,67 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1067400</v>
+        <v>709000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1067400</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>709000</v>
+        <v>1775940</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>709000</t>
+          <t>1775940</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2431,67 +2431,67 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1775940</v>
+        <v>2759400</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1775940</t>
+          <t>2759400</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2759400</v>
+        <v>1493940</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2759400</t>
+          <t>1493940</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2501,32 +2501,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1493940</v>
+        <v>2375400</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1493940</t>
+          <t>2375400</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2536,32 +2536,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2375400</v>
+        <v>1799940</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2375400</t>
+          <t>1799940</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2571,67 +2571,67 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1799940</v>
+        <v>2087940</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1799940</t>
+          <t>2087940</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2087940</v>
+        <v>840000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2087940</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2641,32 +2641,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>840000</v>
+        <v>1140000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2676,67 +2676,67 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1140000</v>
+        <v>1289400</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>1289400</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1289400</v>
+        <v>1209000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1289400</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2746,32 +2746,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1209000</v>
+        <v>1342800</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1342800</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1342800</v>
+        <v>1508940</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1342800</t>
+          <t>1508940</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2816,67 +2816,67 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1508940</v>
+        <v>1798740</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1508940</t>
+          <t>1798740</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1798740</v>
+        <v>1239900</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1798740</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2886,32 +2886,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1239900</v>
+        <v>1295940</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1239900</t>
+          <t>1295940</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2921,32 +2921,32 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1295940</v>
+        <v>1129900</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1295940</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2956,32 +2956,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1129900</v>
+        <v>807900</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2991,32 +2991,32 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>807900</v>
+        <v>860940</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>807900</t>
+          <t>860940</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3026,32 +3026,32 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>860940</v>
+        <v>962900</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>860940</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3061,32 +3061,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>962900</v>
+        <v>2273940</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>962900</t>
+          <t>2273940</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3096,67 +3096,67 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2273940</v>
+        <v>884900</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2273940</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>884900</v>
+        <v>804400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>804400</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3166,32 +3166,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>804400</v>
+        <v>418500</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>804400</t>
+          <t>418500</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3201,32 +3201,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>418500</v>
+        <v>755500</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>418500</t>
+          <t>755500</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>755500</v>
+        <v>398500</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>755500</t>
+          <t>398500</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>398500</v>
+        <v>652500</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>398500</t>
+          <t>652500</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>652500</v>
+        <v>390900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>652500</t>
+          <t>390900</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3341,32 +3341,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>390900</v>
+        <v>1312000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>390900</t>
+          <t>1312000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3376,32 +3376,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1312000</v>
+        <v>1096000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1312000</t>
+          <t>1096000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3411,32 +3411,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1096000</v>
+        <v>887000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1096000</t>
+          <t>887000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>887000</v>
+        <v>1113900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>887000</t>
+          <t>1113900</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3481,32 +3481,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1113900</v>
+        <v>1191900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1113900</t>
+          <t>1191900</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3516,32 +3516,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1191900</v>
+        <v>1093000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1191900</t>
+          <t>1093000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3551,32 +3551,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1093000</v>
+        <v>823940</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1093000</t>
+          <t>823940</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3586,32 +3586,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>823940</v>
+        <v>796900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>823940</t>
+          <t>796900</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3621,67 +3621,67 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>796900</v>
+        <v>844000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>796900</t>
+          <t>844000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>844000</v>
+        <v>1399900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>844000</t>
+          <t>1399900</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3691,32 +3691,32 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1399900</v>
+        <v>1003200</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>1003200</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3726,67 +3726,67 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1003200</v>
+        <v>1577940</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1003200</t>
+          <t>1577940</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1577940</v>
+        <v>1014000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1577940</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3796,67 +3796,67 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1014000</v>
+        <v>1320000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>1320000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1320000</v>
+        <v>1077000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1320000</t>
+          <t>1077000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3866,67 +3866,67 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1077000</v>
+        <v>1426000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1077000</t>
+          <t>1426000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1426000</v>
+        <v>1369900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1426000</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3936,67 +3936,67 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1369900</v>
+        <v>1277940</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1277940</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1277940</v>
+        <v>954000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1277940</t>
+          <t>954000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4006,32 +4006,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>954000</v>
+        <v>681000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>954000</t>
+          <t>681000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4041,32 +4041,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>681000</v>
+        <v>493000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>681000</t>
+          <t>493000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>493000</v>
+        <v>614000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>493000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>614000</v>
+        <v>523000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>523000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4146,67 +4146,67 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>523000</v>
+        <v>638000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>523000</t>
+          <t>638000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>638000</v>
+        <v>1223000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>1223000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4216,32 +4216,32 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1223000</v>
+        <v>1334200</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1223000</t>
+          <t>1334200</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4251,32 +4251,32 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1334200</v>
+        <v>1094000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1334200</t>
+          <t>1094000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4286,67 +4286,67 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1094000</v>
+        <v>715000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1094000</t>
+          <t>715000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>715000</v>
+        <v>1590000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>1590000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4356,32 +4356,32 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1590000</v>
+        <v>1212000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1590000</t>
+          <t>1212000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1212000</v>
+        <v>1236000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1212000</t>
+          <t>1236000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4426,67 +4426,67 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1236000</v>
+        <v>1344600</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1236000</t>
+          <t>1344600</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1344600</v>
+        <v>2699400</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1344600</t>
+          <t>2699400</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4496,67 +4496,67 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2699400</v>
+        <v>4079400</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2699400</t>
+          <t>4079400</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4079400</v>
+        <v>910800</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4079400</t>
+          <t>910800</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>910800</v>
+        <v>762400</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>910800</t>
+          <t>762400</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4601,58 +4601,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>762400</v>
+        <v>2025540</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>762400</t>
+          <t>2025540</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>658</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Tiguan New</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>2025540</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2025540</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1541940</v>
+        <v>1449900</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1541940</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>969900</v>
+        <v>767000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>767000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1718400</v>
+        <v>1455000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1718400</t>
+          <t>1455000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>904800</v>
+        <v>584900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>904800</t>
+          <t>584900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1259400</v>
+        <v>905000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1259400</t>
+          <t>905000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2399400</v>
+        <v>1545000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2399400</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1544990</v>
+        <v>1494990</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1544990</t>
+          <t>1494990</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2375994</v>
+        <v>1859990</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2375994</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1367400</v>
+        <v>1304400</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1367400</t>
+          <t>1304400</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1115400</v>
+        <v>919000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1115400</t>
+          <t>919000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1289400</v>
+        <v>1007000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1289400</t>
+          <t>1007000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>815000</v>
+        <v>615000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>815000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1432000</v>
+        <v>1429000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1432000</t>
+          <t>1429000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1067400</v>
+        <v>709000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1067400</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2375400</v>
+        <v>2252400</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2375400</t>
+          <t>2252400</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1799940</v>
+        <v>1796940</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1799940</t>
+          <t>1796940</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1140000</v>
+        <v>473000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>473000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>804400</v>
+        <v>304400</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>804400</t>
+          <t>304400</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>418500</v>
+        <v>318500</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>418500</t>
+          <t>318500</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>755500</v>
+        <v>315500</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>755500</t>
+          <t>315500</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>398500</v>
+        <v>298500</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>398500</t>
+          <t>298500</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>390900</v>
+        <v>290900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>390900</t>
+          <t>290900</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1312000</v>
+        <v>567900</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1312000</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1096000</v>
+        <v>480000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1096000</t>
+          <t>480000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>887000</v>
+        <v>487000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>887000</t>
+          <t>487000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3450,7 +3450,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1113900</v>
+        <v>1052900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1113900</t>
+          <t>1052900</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3485,7 +3485,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1191900</v>
+        <v>1051900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1191900</t>
+          <t>1051900</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1093000</v>
+        <v>859900</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1093000</t>
+          <t>859900</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>823940</v>
+        <v>789900</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>823940</t>
+          <t>789900</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>681000</v>
+        <v>614000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>681000</t>
+          <t>614000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>715000</v>
+        <v>615000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>715000</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>762400</v>
+        <v>662400</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>762400</t>
+          <t>662400</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2025540</v>
+        <v>1534900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025540</t>
+          <t>1534900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,22 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru_price</t>
+          <t>vlg-auto34.ru_price</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru</t>
+          <t>vlg-auto34.ru</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>avto-volga-2025.ru_price</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>avto-volga-2025.ru</t>
         </is>
       </c>
     </row>
@@ -492,6 +502,16 @@
           <t>https://vlg-auto34.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1439000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/baic/u5plus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,6 +547,16 @@
           <t>https://vlg-auto34.ru/auto/baic/x35/</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/baic/x35</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -667,11 +697,21 @@
           <t>https://vlg-auto34.ru/auto/changan/alsvin/</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>969900</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/alsvin</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +721,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS35 Plus New</t>
+          <t>CS35 Plus</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -689,24 +729,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+          <t>https://avto-volga-2025.ru/catalog/changan/cs35plus_2023</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1449900</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs35plus_2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -716,32 +756,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS55</t>
+          <t>CS35 Plus New</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>767000</v>
+        <v>1449900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>767000</t>
+          <t>1449900</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,32 +791,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS55 Plus</t>
+          <t>CS55</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1691940</v>
+        <v>767000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1691940</t>
+          <t>767000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55/</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>767000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs55</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -786,32 +836,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS55 Plus</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2255940</v>
+        <v>1691940</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2255940</t>
+          <t>1691940</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs55_plus/</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1773900</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs55plus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -821,32 +881,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2669940</v>
+        <v>1432900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2669940</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs75fl</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1432900</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -856,32 +916,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1432900</v>
+        <v>2255940</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1432900</t>
+          <t>2255940</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs85_coupe/</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2299900</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/cs85_coupe</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -891,32 +961,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1721940</v>
+        <v>2669940</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1721940</t>
+          <t>2669940</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
+          <t>https://vlg-auto34.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,32 +996,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2381940</v>
+        <v>1432900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2381940</t>
+          <t>1432900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+          <t>https://vlg-auto34.ru/auto/changan/eado_plus/</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1499900</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/eadoplus</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -961,32 +1041,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1841940</v>
+        <v>1721940</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1841940</t>
+          <t>1721940</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+          <t>https://vlg-auto34.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -996,102 +1076,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1779900</v>
+        <v>2381940</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1779900</t>
+          <t>2381940</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-k/</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3039900</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/unik</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1740000</v>
+        <v>1841940</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1740000</t>
+          <t>1841940</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-t/</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1969900</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/unit</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tiggo 4 New</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1182000</v>
+        <v>1779900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+          <t>https://avto-volga-2025.ru/catalog/changan/uni_v</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1182000</t>
+          <t>1779900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
+          <t>https://vlg-auto34.ru/auto/changan/uni-v/</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1779900</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/changan/uni_v</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1101,32 +1211,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1087900</v>
+        <v>1740000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1087900</t>
+          <t>1740000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://vlg-auto34.ru/auto/chery/arrizo_8/</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2454100</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/arrizo_8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1136,32 +1256,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1239900</v>
+        <v>1021600</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1239900</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_4_2019</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1021600</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_4_2019</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1171,32 +1291,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1519900</v>
+        <v>1182000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1519900</t>
+          <t>1182000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1206,32 +1326,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max New</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1668000</v>
+        <v>1087900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1668000</t>
+          <t>1087900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1241,32 +1361,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1950000</v>
+        <v>1168800</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1950000</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_7</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1168800</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1276,3348 +1396,6603 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2022000</v>
+        <v>1239900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2022000</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro/</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1523200</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo7pro</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>572340</v>
+        <v>1519900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_7_promax</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>572340</t>
+          <t>1519900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1519900</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_7_promax</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>527900</v>
+        <v>1668000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>527900</t>
+          <t>1668000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Tiggo 7 Pro Plug-In-Hybrid</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>570540</v>
+        <v>2515000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>570540</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_7_pro_plug_in_hybrid</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2515000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_7_pro_plug_in_hybrid</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1434000</v>
+        <v>1706900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/dfm/580/</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1434000</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/dfm/580/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1706900</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2850000</v>
+        <v>1254900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2850000</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1254900</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1424400</v>
+        <v>1950000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1424400</t>
+          <t>1950000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3810000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8_promax</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1446600</v>
+        <v>2022000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1446600</t>
+          <t>2022000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+          <t>https://vlg-auto34.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Tiggo 8 Pro Plug-In-Hybrid</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1455000</v>
+        <v>3050500</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1455000</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8_pro_plug_in_hybrid</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3050500</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo_8_pro_plug_in_hybrid</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>X40</t>
+          <t>Tiggo 9</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>584900</v>
+        <v>2987500</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>584900</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo9</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2987500</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/chery/tiggo9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>X80</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>898000</v>
+        <v>572340</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>898000</t>
+          <t>572340</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GS3</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1439400</v>
+        <v>527900</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1439400</t>
+          <t>527900</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>905000</v>
+        <v>570540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>905000</t>
+          <t>570540</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+          <t>https://vlg-auto34.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1545000</v>
+        <v>1434000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+          <t>https://vlg-auto34.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1434000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+          <t>https://vlg-auto34.ru/auto/dfm/580/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2015514</v>
+        <v>1464000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2015514</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/580</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/580</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1494990</v>
+        <v>756980</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1494990</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfm_ax7</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>756980</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfm_ax7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>DF6</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1117990</v>
+        <v>2040380</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1117990</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/df6</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2040380</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/df6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>DFSK 500</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1494990</v>
+        <v>1358380</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1494990</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfsk_500</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1358380</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfsk_500</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Emgrand New</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1310394</v>
+        <v>1848800</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1310394</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfskix5</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1848800</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfskix5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2375994</v>
+        <v>2468800</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2375994</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfskix7</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2468800</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/dfskix7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tugella New</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1859990</v>
+        <v>1358380</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1859990</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/shine_max</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1358380</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/dongfeng/shine_max</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1679400</v>
+        <v>1719900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1679400</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+          <t>https://avto-volga-2025.ru/catalog/exeed/lx</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1719900</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/exeed/lx</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>H5 New</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2339400</v>
+        <v>1833000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2339400</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
+          <t>https://avto-volga-2025.ru/catalog/exeed/lx_new</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1833000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/exeed/lx_new</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>947400</v>
+        <v>2850000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>947400</t>
+          <t>2850000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+          <t>https://vlg-auto34.ru/auto/exeed/rx/</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>3267000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/exeed/rx</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1149000</v>
+        <v>1619900</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1149000</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
+          <t>https://avto-volga-2025.ru/catalog/exeed/txl</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1619900</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/exeed/txl</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1304400</v>
+        <v>2605900</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1304400</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+          <t>https://avto-volga-2025.ru/catalog/exeed/vx</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2605900</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/exeed/vx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>919000</v>
+        <v>1424400</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>919000</t>
+          <t>1424400</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1658000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1007000</v>
+        <v>1446600</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1007000</t>
+          <t>1446600</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
+          <t>https://vlg-auto34.ru/auto/faw/bestune_t55/</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1558610</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>615000</v>
+        <v>1455000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://avto-volga-2025.ru/catalog/faw/bestune_t77</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1455000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+          <t>https://vlg-auto34.ru/auto/faw/besturn_t77/</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1455000</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/bestune_t77</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Besturn B70 New</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1429000</v>
+        <v>2200990</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1429000</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_b70_new</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2200990</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_b70_new</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>973</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Besturn T90</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>709000</v>
+        <v>2480990</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>709000</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_t90</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2480990</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_t90</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>Besturn X40</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>709000</v>
+        <v>584900</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>709000</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_x40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>584900</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Besturn X80</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1775940</v>
+        <v>945040</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1775940</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_x80_2018</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>945040</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/faw/besturn_x80_2018</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>X40</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2759400</v>
+        <v>584900</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2759400</t>
+          <t>584900</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>X80</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1493940</v>
+        <v>898000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1493940</t>
+          <t>898000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+          <t>https://vlg-auto34.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2252400</v>
+        <v>1855000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2252400</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+          <t>https://avto-volga-2025.ru/catalog/gac/gn8</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1855000</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/gac/gn8</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>GS3</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1796940</v>
+        <v>1439400</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1796940</t>
+          <t>1439400</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs3/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2087940</v>
+        <v>905000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://avto-volga-2025.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2087940</t>
+          <t>905000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs5/</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>905000</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/gac/gs5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>840000</v>
+        <v>1545000</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://avto-volga-2025.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
+          <t>https://vlg-auto34.ru/auto/gac/gs8/</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1545000</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/gac/gs8</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>473000</v>
+        <v>1994990</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>473000</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+          <t>https://avto-volga-2025.ru/catalog/geely/atlas</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1994990</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1289400</v>
+        <v>2015514</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1289400</t>
+          <t>2015514</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1209000</v>
+        <v>1494990</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://avto-volga-2025.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>1494990</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+          <t>https://vlg-auto34.ru/auto/geely/atlas_pro/</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1494990</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1342800</v>
+        <v>1117990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1342800</t>
+          <t>1117990</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray_1/</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1544990</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1508940</v>
+        <v>1494990</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1508940</t>
+          <t>1494990</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://vlg-auto34.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Emgrand New</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1798740</v>
+        <v>1310394</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1798740</t>
+          <t>1310394</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://vlg-auto34.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1239900</v>
+        <v>867990</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1239900</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
+          <t>https://avto-volga-2025.ru/catalog/geely/emgrand_x7_2019</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>867990</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1295940</v>
+        <v>987990</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1295940</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
+          <t>https://avto-volga-2025.ru/catalog/geely/gs</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>987990</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1129900</v>
+        <v>2375994</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>2375994</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
+          <t>https://vlg-auto34.ru/auto/geely/monjaro/</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2979990</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/monjaro</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Tugella</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>807900</v>
+        <v>1859990</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>807900</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
+          <t>https://avto-volga-2025.ru/catalog/geely/tugella</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1859990</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/geely/tugella</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Tugella New</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>860940</v>
+        <v>1859990</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>860940</t>
+          <t>1859990</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
+          <t>https://vlg-auto34.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>962900</v>
+        <v>1819000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>962900</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
+          <t>https://avto-volga-2025.ru/catalog/haval/dargo</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1819000</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/dargo</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>Dargo X</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2273940</v>
+        <v>2269000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2273940</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
+          <t>https://avto-volga-2025.ru/catalog/haval/dargox</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2269000</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/dargox</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>884900</v>
+        <v>1569000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>884900</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+          <t>https://avto-volga-2025.ru/catalog/haval/f7</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1569000</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>304400</v>
+        <v>1199000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>304400</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+          <t>https://avto-volga-2025.ru/catalog/haval/f7x</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>318500</v>
+        <v>1679400</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>318500</t>
+          <t>1679400</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h3/</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1695370</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/h3</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>H5 New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>315500</v>
+        <v>2339400</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>315500</t>
+          <t>2339400</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+          <t>https://vlg-auto34.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>298500</v>
+        <v>1803000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>298500</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+          <t>https://avto-volga-2025.ru/catalog/haval/h9_2018</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1803000</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>652500</v>
+        <v>947400</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>652500</t>
+          <t>947400</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion_1/</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1149000</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>290900</v>
+        <v>1149000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+          <t>https://vlg-auto34.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>567900</v>
+        <v>1304400</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://avto-volga-2025.ru/catalog/haval/m6</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>1304400</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+          <t>https://vlg-auto34.ru/auto/haval/m6/</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1304400</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/haval/m6</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>480000</v>
+        <v>919000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>480000</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/creta_21_new</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>919000</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/creta_21_new</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>487000</v>
+        <v>919000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>487000</t>
+          <t>919000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/creta/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1052900</v>
+        <v>1007000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>1052900</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/elantra_20</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1007000</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/elantra_20</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1051900</v>
+        <v>1007000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1051900</t>
+          <t>1007000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>859900</v>
+        <v>615000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>859900</t>
+          <t>615000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>615000</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>789900</v>
+        <v>1432000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>789900</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/sonata_2019</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1432000</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/sonata_2019</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>796900</v>
+        <v>1429000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>796900</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/tucson_21</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1429000</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/hyundai/tucson_21</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>844000</v>
+        <v>1429000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>844000</t>
+          <t>1429000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+          <t>https://vlg-auto34.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1399900</v>
+        <v>709000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://avto-volga-2025.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1399900</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+          <t>https://vlg-auto34.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>709000</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jac/j7</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1003200</v>
+        <v>1159370</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>1003200</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+          <t>https://avto-volga-2025.ru/catalog/jac/js3</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1159370</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jac/js3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1577940</v>
+        <v>2589000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1577940</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+          <t>https://avto-volga-2025.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2589000</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jac/js6</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1014000</v>
+        <v>709000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1014000</t>
+          <t>709000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+          <t>https://vlg-auto34.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1320000</v>
+        <v>1726870</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>1320000</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
+          <t>https://avto-volga-2025.ru/catalog/jac/t_8</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1726870</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jac/t_8</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>T8 Pro</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1077000</v>
+        <v>1884370</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1077000</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+          <t>https://avto-volga-2025.ru/catalog/jac/t8pro</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1884370</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jac/t8pro</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>682</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1426000</v>
+        <v>2010370</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>1426000</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+          <t>https://avto-volga-2025.ru/catalog/jac/t_9</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2010370</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jac/t_9</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1369900</v>
+        <v>1775940</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1775940</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1277940</v>
+        <v>2759400</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1277940</t>
+          <t>2759400</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+          <t>https://vlg-auto34.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>954000</v>
+        <v>1493940</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>954000</t>
+          <t>1493940</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>1609900</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetour/dashing</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>614000</v>
+        <v>2252400</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://avto-volga-2025.ru/catalog/jetour/t2</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>2252400</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2252400</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetour/t2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>493000</v>
+        <v>1288500</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>493000</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+          <t>https://avto-volga-2025.ru/catalog/jetour/x_50</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1288500</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetour/x_50</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>614000</v>
+        <v>1796940</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://avto-volga-2025.ru/catalog/jetour/x70_plus</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>614000</t>
+          <t>1796940</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1796940</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetour/x70_plus</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>523000</v>
+        <v>2087940</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>523000</t>
+          <t>2087940</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+          <t>https://vlg-auto34.ru/auto/jetour/x90_plus/</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2509900</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>638000</v>
+        <v>840000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>638000</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1223000</v>
+        <v>473000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://avto-volga-2025.ru/catalog/jetta/vs5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1223000</t>
+          <t>473000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs5/</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>473000</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1334200</v>
+        <v>1289400</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1334200</t>
+          <t>1289400</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+          <t>https://vlg-auto34.ru/auto/jetta/vs7/</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1549000</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1094000</v>
+        <v>1209000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://avto-volga-2025.ru/catalog/kaiyi/e5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1094000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/e5/</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>1209000</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/kaiyi/e5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>615000</v>
+        <v>1342800</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>1342800</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3/</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1404940</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/kaiyi/x3</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1590000</v>
+        <v>1508940</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1590000</t>
+          <t>1508940</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x3_pro/</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>1579387</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/kaiyi/x3_pro</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1212000</v>
+        <v>1798740</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1212000</t>
+          <t>1798740</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+          <t>https://vlg-auto34.ru/auto/kaiyi/x7_kunlun/</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>1883677</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/kaiyi/x7_kunlon</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1236000</v>
+        <v>1239900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1236000</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1344600</v>
+        <v>1295940</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1344600</t>
+          <t>1295940</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+          <t>https://vlg-auto34.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2699400</v>
+        <v>1129900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2699400</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+          <t>https://vlg-auto34.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4079400</v>
+        <v>807900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>4079400</t>
+          <t>807900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>910800</v>
+        <v>860940</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>910800</t>
+          <t>860940</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+          <t>https://vlg-auto34.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>662400</v>
+        <v>962900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>662400</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+          <t>https://vlg-auto34.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sorento New</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2273940</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2273940</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/sorento/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>KIA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Soul</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>884900</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>884900</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Aura</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1632370</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/aura</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1632370</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Granta Cross</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>304400</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_cross_2019</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>304400</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>304400</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_cross_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Granta Hatchback</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>318500</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_hatchback_2018</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>318500</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>318500</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_hatchback_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Granta Liftback</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>315500</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_liftback_2018</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>315500</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>315500</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_liftback_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Granta Sedan</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>298500</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_sedan_2018</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>298500</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>298500</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_sedan_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Granta Sedan Drive Active</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>652500</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>652500</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Granta Universal</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>290900</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_universal_2018</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>290900</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>290900</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/granta_universal_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Largus</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/largus_21</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>480000</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/largus_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Largus Cross</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>567900</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/largus_cross_21</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>567900</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/largus_cross_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Largus Cross New</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>567900</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>567900</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Largus New</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>480000</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Niva Legend 3 двери</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>468900</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>468900</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Niva Legend 5 дверей</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>568900</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/4x4_5dr</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>568900</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/4x4_5dr</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Niva Off-Road</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>599000</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/niva_off</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>599000</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/niva_off</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Niva Travel</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>487000</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/travel</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>487000</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>487000</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Vesta Cross</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1052900</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_cross_2023</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1052900</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_cross_2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Vesta Cross New</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1052900</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1052900</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Vesta SW</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>859900</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_sw_2023</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>859900</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_sw_2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Vesta SW Cross</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1051900</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_sw_cross_2023</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1051900</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_sw_cross_2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Vesta SW Cross New</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1051900</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1051900</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Vesta SW New</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>859900</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>859900</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta_sw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Vesta Sedan</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>789900</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_2023</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>789900</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lada/vesta_2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Vesta Sedan New</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>789900</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>789900</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Xray</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>796900</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>796900</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Lada</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Xray Cross</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>844000</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>844000</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Murman</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>674000</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/murman</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>674000</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/murman</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MyWay</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>639900</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/myway</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>639900</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/myway</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Solano 2</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>426600</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/solano2</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>426600</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/solano2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>X50</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>414000</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>414000</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>X60</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>435000</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/lifan_x60_2016</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>435000</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/lifan_x60_2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Lifan</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>X70</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>719000</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>719000</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>S6 Pro</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1399900</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1399900</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1601437</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/livan/s6_pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>X3 Pro</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1003200</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1003200</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1229900</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/livan/x3pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Livan</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>X6 Pro</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1577940</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1577940</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/livan/x6pro/</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1651837</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/livan/x6_pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1014000</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1014000</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>1170000</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/moskvich/mos_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3e</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>3450000</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/moskvich/moskvich_3e</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>3450000</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/moskvich/moskvich_3e</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Moskvich</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1320000</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1320000</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/moskvich/6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Qashqai</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1077000</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1077000</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>X-trail</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1426000</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1426000</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1369900</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1369900</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1858900</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/omoda/c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>C5 New</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1614037</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/omoda/c5_new</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>1614037</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/omoda/c5_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1277940</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1277940</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>1587900</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/omoda/s5</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>OMODA</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>S5 GT</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1557337</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/omoda/s5_gt</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>1557337</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/omoda/s5_gt</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Arkana</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>954000</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>954000</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>954000</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Duster</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>695000</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/duster_2021</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>695000</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/duster_2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Kaptur</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>614000</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/kaptur_2020</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>614000</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>614000</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/kaptur_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Logan</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>493000</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/logan_new_2018</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>493000</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>493000</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/logan_new_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Logan Stepway</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>614000</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>614000</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>628000</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/logan_stepway</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Logan Stepway City</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>697000</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/logan_stepway_city_2018</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>697000</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/logan_stepway_city_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sandero</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>523000</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/sandero_2018</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>523000</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>523000</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/sandero_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Sandero Stepway</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>638000</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>638000</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>681000</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/sandero_stepway_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Stepway City</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>721000</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/sandero_stepway_city_2018</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>721000</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/renault/sandero_stepway_city_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Karoq</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1223000</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1223000</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>1537000</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Kodiaq</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1807000</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>1807000</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Kodiaq New</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1334200</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1334200</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Octavia</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1187000</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>1187000</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Octavia New</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1094000</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1094000</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rapid</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>615000</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>615000</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>615000</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Superb</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2128000</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/superb_2019</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2128000</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/superb_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Skoda</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Superb Combi</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2421000</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/superb_combi_2019</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2421000</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/skoda/superb_combi_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1590000</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>HS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1212000</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1212000</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>KRS</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1236000</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1236000</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Solaris</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>KRX</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1344600</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1344600</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2699400</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2699400</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TANK</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>4079400</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4079400</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/tank/500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CH-R</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1832000</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/toyota/c-hr_2019</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>1832000</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/toyota/c-hr_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1142000</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/toyota/Corolla_2019</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>1142000</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/toyota/Corolla_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>RAV4</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>1800000</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/toyota/Rav4_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>585000</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>585000</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Patriot</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>659000</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>659000</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>677000</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>677000</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>910800</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>910800</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>1265000</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/passat_2020</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>1829000</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/passat_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>662400</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://vlg-auto34.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>662400</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1406900</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>1406900</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1534900</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>1534900</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://avto-volga-2025.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
           <t>658</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Tiguan New</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D199" t="n">
         <v>1534900</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>1534900</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>https://vlg-auto34.ru/auto/volkswagen/tiguan/</t>
         </is>

--- a/xlsx/volgograd.xlsx
+++ b/xlsx/volgograd.xlsx
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>567900</v>
+        <v>562900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>567900</t>
+          <t>562900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>480000</v>
+        <v>407000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>480000</t>
+          <t>407000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D173" t="n">
